--- a/LEGO_Deliverables_Checklist.xlsx
+++ b/LEGO_Deliverables_Checklist.xlsx
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">data!$E$2:$E$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Elements Deliverables'!$A$3:$K$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FishTank Deliverables'!$A$3:$K$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FishTank Deliverables'!$A$3:$K$68</definedName>
     <definedName name="approval" localSheetId="2">[1]data!$A$2:$A$6</definedName>
     <definedName name="approval">data!$A$2:$A$6</definedName>
     <definedName name="boolean" localSheetId="2">[1]data!$H$2:$H$4</definedName>
@@ -31,7 +31,7 @@
     <definedName name="platform" localSheetId="2">[1]data!$E$2:$E$6</definedName>
     <definedName name="platform">data!$E$2:$E$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Elements Deliverables'!$C$1:$I$305</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'FishTank Deliverables'!$C$1:$I$306</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'FishTank Deliverables'!$C$1:$I$310</definedName>
     <definedName name="priority" localSheetId="2">[1]data!$C$2:$C$5</definedName>
     <definedName name="priority">data!$C$2:$C$5</definedName>
     <definedName name="scope">data!$D$2:$D$5</definedName>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="342">
   <si>
     <t>TBD</t>
   </si>
@@ -1122,34 +1122,81 @@
     <t>Over due. Must be locked down imediately.</t>
   </si>
   <si>
-    <t>Fishtank Environment Direction Part 1</t>
-  </si>
-  <si>
-    <t>Fishtank Environment Direction Part 2</t>
-  </si>
-  <si>
     <t>Fishtank Environment Lock Down</t>
   </si>
   <si>
-    <t>Fishtank Environment Direction Part 3</t>
-  </si>
-  <si>
-    <t>Fishtank Environment Direction Part 4</t>
-  </si>
-  <si>
-    <t>To be finlised with the Alpha submission. May not be present inside the submission build</t>
-  </si>
-  <si>
     <t>Building Insperation Screen Art</t>
   </si>
   <si>
-    <t>First deliverable to be asertained what can be locked down and what remains (See remaing Parts)</t>
-  </si>
-  <si>
-    <t>Each Part to be defined in the first sync on the 25th of June.  We will allocate portions of the tank based on what is given on the 25th.</t>
-  </si>
-  <si>
     <t>Request to be defiend and addressed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Background
+o Sending two files one with plants and one with out.
+o Locked down awaiting final delivery from Funcom.
+• Plant Life/Details
+o Sending some plants that are missing optimizations
+o Locked down awaiting final delivery from Funcom.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Sand Shelves/Levels
+o No drastic changes
+o Will build it out of lego 
+o Funcom to make a sand pass over this
+o LEGO to lock down Friday 28th
+</t>
+  </si>
+  <si>
+    <t>Fishtank Environment Direction - Background and Plant Life/Details</t>
+  </si>
+  <si>
+    <t>Fishtank Environment Direction - SandShelves/Levels</t>
+  </si>
+  <si>
+    <t>Fishtank Environment Direction - Foreground</t>
+  </si>
+  <si>
+    <t>Fishtank Environment Direction - Build Layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+• Build Layer/Mid Ground 
+o Lock down Tuesday the 02</t>
+  </si>
+  <si>
+    <t>Fishtank Environment Direction -  Corner Pieces</t>
+  </si>
+  <si>
+    <t>• Corner Piece 
+o Not yet final
+o Tuesday 02 Deliverable.
+o Can be mirrored with minor changes.</t>
+  </si>
+  <si>
+    <t>• Foreground 
+o Lock down Tuesday 02</t>
+  </si>
+  <si>
+    <t>Fishtank Environment Asset - Background and Plant Life/Details</t>
+  </si>
+  <si>
+    <t>June 28, 2013</t>
+  </si>
+  <si>
+    <t>Fishtank Environment Asset - SandShelves/Levels</t>
+  </si>
+  <si>
+    <t>Fishtank Environment Direction Lock Down</t>
+  </si>
+  <si>
+    <t>Remaining Direction (Foreground, Build Later and Corner Pieces) locked down</t>
+  </si>
+  <si>
+    <t>Remaining Assets locked down and ready for gameplay implementation (Building pass  and further optimisation, may not be present in a build on this date)</t>
+  </si>
+  <si>
+    <t>With the requested sync up on the 28th instead of the 27th. Max will be unable to deliver till the 3rd of July</t>
   </si>
 </sst>
 </file>
@@ -1160,9 +1207,16 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="[$-1009]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1403,6 +1457,16 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1548,336 +1612,351 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="282">
+  <cellStyleXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -1886,260 +1965,275 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="224" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="1" xfId="224" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="9" borderId="1" xfId="224" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="25" fillId="9" borderId="1" xfId="224" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="12" borderId="1" xfId="259" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="23" fillId="12" borderId="1" xfId="259" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="224" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="224" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="224" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="224" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="9" borderId="1" xfId="224" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="19" fillId="9" borderId="1" xfId="224" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="224" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="224" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="224" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="224" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" xfId="224" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="224" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="1" xfId="224" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="1" xfId="224" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="10" borderId="1" xfId="224" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="1" xfId="224" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="282">
+  <cellStyles count="297">
     <cellStyle name="Bad" xfId="224" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -2419,31 +2513,26 @@
     <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="259" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="181">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="279">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2487,6 +2576,198 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="2" tint="-0.749992370372631"/>
       </font>
       <fill>
@@ -2497,6 +2778,58 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.749992370372631"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
@@ -3542,6 +3875,58 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="2" tint="-0.749992370372631"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color theme="0"/>
@@ -3577,6 +3962,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3629,26 +4034,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3766,6 +4151,295 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="2" tint="-0.749992370372631"/>
       </font>
       <fill>
@@ -3777,36 +4451,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3848,6 +4492,41 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3863,6 +4542,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3890,6 +4579,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3931,6 +4640,130 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="2" tint="-0.749992370372631"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.749992370372631"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color theme="0"/>
@@ -3961,6 +4794,318 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.749992370372631"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.749992370372631"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.749992370372631"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4992,57 +6137,58 @@
     <outlinePr showOutlineSymbols="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K306"/>
+  <dimension ref="A1:K310"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.1640625" style="20" hidden="1" customWidth="1" outlineLevel="7"/>
     <col min="2" max="2" width="12.33203125" style="20" customWidth="1" outlineLevel="7"/>
-    <col min="3" max="3" width="36.5" style="20" bestFit="1" customWidth="1" outlineLevel="7"/>
+    <col min="3" max="3" width="73" style="20" bestFit="1" customWidth="1" outlineLevel="7"/>
     <col min="4" max="4" width="12.6640625" style="21" customWidth="1" outlineLevel="7"/>
     <col min="5" max="5" width="10.33203125" style="21" customWidth="1" outlineLevel="7"/>
     <col min="6" max="6" width="18.5" style="21" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="16.5" style="21" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="16.5" style="21" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="10" width="10.6640625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="21" customWidth="1"/>
     <col min="11" max="11" width="43" style="22" customWidth="1"/>
     <col min="12" max="16384" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="43" customFormat="1" ht="72" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="104"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="111"/>
     </row>
     <row r="2" spans="1:11" s="42" customFormat="1" ht="18">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="101"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
     </row>
     <row r="3" spans="1:11" s="41" customFormat="1" ht="25" customHeight="1">
       <c r="A3" s="38" t="s">
@@ -5364,156 +6510,156 @@
       <c r="B12" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="112" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="97" t="s">
+      <c r="F12" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="97">
+      <c r="G12" s="114">
         <v>41390</v>
       </c>
-      <c r="H12" s="97">
-        <v>41445</v>
-      </c>
-      <c r="I12" s="96" t="s">
+      <c r="H12" s="114">
+        <v>41450</v>
+      </c>
+      <c r="I12" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="96" t="s">
+      <c r="J12" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="98" t="s">
+      <c r="K12" s="115" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="70" customFormat="1" ht="30">
+    <row r="13" spans="1:11" s="70" customFormat="1" ht="165">
       <c r="A13" s="69"/>
       <c r="B13" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="95" t="s">
-        <v>322</v>
-      </c>
-      <c r="D13" s="96" t="s">
+      <c r="C13" s="112" t="s">
+        <v>327</v>
+      </c>
+      <c r="D13" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="96" t="s">
+      <c r="E13" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="97" t="s">
+      <c r="F13" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="97">
+      <c r="G13" s="114">
         <v>41450</v>
       </c>
-      <c r="H13" s="97">
-        <v>41445</v>
-      </c>
-      <c r="I13" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="96"/>
-      <c r="K13" s="98" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="70" customFormat="1" ht="45">
+      <c r="H13" s="114">
+        <v>41450</v>
+      </c>
+      <c r="I13" s="113" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="115" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="70" customFormat="1" ht="15">
       <c r="A14" s="69"/>
-      <c r="B14" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="95" t="s">
-        <v>323</v>
-      </c>
-      <c r="D14" s="96" t="s">
+      <c r="B14" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="112" t="s">
+        <v>335</v>
+      </c>
+      <c r="D14" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="96" t="s">
+      <c r="E14" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="97" t="s">
+      <c r="F14" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="97">
-        <v>41452</v>
-      </c>
-      <c r="H14" s="97">
-        <v>41445</v>
-      </c>
-      <c r="I14" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="96"/>
-      <c r="K14" s="98" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="70" customFormat="1" ht="45">
+      <c r="G14" s="114" t="s">
+        <v>336</v>
+      </c>
+      <c r="H14" s="114">
+        <v>41450</v>
+      </c>
+      <c r="I14" s="113" t="s">
+        <v>221</v>
+      </c>
+      <c r="J14" s="113"/>
+      <c r="K14" s="115"/>
+    </row>
+    <row r="15" spans="1:11" s="70" customFormat="1" ht="90">
       <c r="A15" s="69"/>
       <c r="B15" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="95" t="s">
-        <v>325</v>
-      </c>
-      <c r="D15" s="96" t="s">
+      <c r="C15" s="112" t="s">
+        <v>328</v>
+      </c>
+      <c r="D15" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="96" t="s">
+      <c r="E15" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="97" t="s">
+      <c r="F15" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="97">
-        <v>41457</v>
-      </c>
-      <c r="H15" s="97">
-        <v>41445</v>
-      </c>
-      <c r="I15" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="96"/>
-      <c r="K15" s="98" t="s">
-        <v>330</v>
+      <c r="G15" s="114">
+        <v>41453</v>
+      </c>
+      <c r="H15" s="114">
+        <v>41450</v>
+      </c>
+      <c r="I15" s="113" t="s">
+        <v>221</v>
+      </c>
+      <c r="J15" s="113"/>
+      <c r="K15" s="115" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="70" customFormat="1" ht="45">
       <c r="A16" s="69"/>
-      <c r="B16" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="D16" s="96" t="s">
+      <c r="B16" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="112" t="s">
+        <v>337</v>
+      </c>
+      <c r="D16" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="96" t="s">
+      <c r="E16" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="97" t="s">
+      <c r="F16" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="97">
-        <v>41459</v>
-      </c>
-      <c r="H16" s="97">
-        <v>41445</v>
-      </c>
-      <c r="I16" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="96"/>
-      <c r="K16" s="98" t="s">
-        <v>330</v>
+      <c r="G16" s="114">
+        <v>41458</v>
+      </c>
+      <c r="H16" s="114">
+        <v>41450</v>
+      </c>
+      <c r="I16" s="113" t="s">
+        <v>221</v>
+      </c>
+      <c r="J16" s="113"/>
+      <c r="K16" s="115" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="70" customFormat="1" ht="30">
@@ -5521,227 +6667,225 @@
       <c r="B17" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="95" t="s">
-        <v>324</v>
-      </c>
-      <c r="D17" s="96" t="s">
+      <c r="C17" s="112" t="s">
+        <v>329</v>
+      </c>
+      <c r="D17" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="96" t="s">
+      <c r="E17" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="97" t="s">
+      <c r="F17" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="97">
-        <v>41460</v>
-      </c>
-      <c r="H17" s="97">
-        <v>41445</v>
-      </c>
-      <c r="I17" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="96"/>
-      <c r="K17" s="98" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="70" customFormat="1" ht="28">
+      <c r="G17" s="114">
+        <v>41457</v>
+      </c>
+      <c r="H17" s="114">
+        <v>41450</v>
+      </c>
+      <c r="I17" s="113" t="s">
+        <v>221</v>
+      </c>
+      <c r="J17" s="113"/>
+      <c r="K17" s="115" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="70" customFormat="1" ht="45">
       <c r="A18" s="69"/>
       <c r="B18" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="110" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="73" t="s">
+      <c r="C18" s="112" t="s">
+        <v>330</v>
+      </c>
+      <c r="D18" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="74" t="s">
+      <c r="F18" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="74">
-        <v>41404</v>
-      </c>
-      <c r="H18" s="74">
-        <v>41386</v>
-      </c>
-      <c r="I18" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="73"/>
-      <c r="K18" s="64" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="70" customFormat="1" ht="15">
+      <c r="G18" s="114">
+        <v>41457</v>
+      </c>
+      <c r="H18" s="114">
+        <v>41450</v>
+      </c>
+      <c r="I18" s="113" t="s">
+        <v>221</v>
+      </c>
+      <c r="J18" s="113"/>
+      <c r="K18" s="115" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="70" customFormat="1" ht="60">
       <c r="A19" s="69"/>
       <c r="B19" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="95" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="96" t="s">
+      <c r="C19" s="112" t="s">
+        <v>332</v>
+      </c>
+      <c r="D19" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="96" t="s">
+      <c r="E19" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="97">
-        <v>41411</v>
-      </c>
-      <c r="H19" s="97">
-        <v>41386</v>
-      </c>
-      <c r="I19" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="96"/>
-      <c r="K19" s="98" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="70" customFormat="1" ht="15">
+      <c r="F19" s="114" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="114">
+        <v>41457</v>
+      </c>
+      <c r="H19" s="114">
+        <v>41450</v>
+      </c>
+      <c r="I19" s="113" t="s">
+        <v>221</v>
+      </c>
+      <c r="J19" s="113"/>
+      <c r="K19" s="115" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="70" customFormat="1" ht="30">
       <c r="A20" s="69"/>
       <c r="B20" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C20" t="s">
-        <v>328</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="112" t="s">
+        <v>338</v>
+      </c>
+      <c r="D20" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="30">
-        <v>41488</v>
-      </c>
-      <c r="H20" s="30">
-        <v>41445</v>
-      </c>
-      <c r="I20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20"/>
-      <c r="K20" s="111" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="70" customFormat="1">
-      <c r="A21" s="69">
-        <v>1</v>
-      </c>
+      <c r="F20" s="114" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="114">
+        <v>41459</v>
+      </c>
+      <c r="H20" s="114">
+        <v>41450</v>
+      </c>
+      <c r="I20" s="113" t="s">
+        <v>221</v>
+      </c>
+      <c r="J20" s="113"/>
+      <c r="K20" s="115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="70" customFormat="1" ht="60">
+      <c r="A21" s="69"/>
       <c r="B21" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="112" t="s">
+        <v>322</v>
+      </c>
+      <c r="D21" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="30">
-        <v>41411</v>
-      </c>
-      <c r="H21" s="30">
-        <v>41417</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="64"/>
-    </row>
-    <row r="22" spans="1:11" s="70" customFormat="1" ht="14" customHeight="1">
+      <c r="F21" s="114" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="114">
+        <v>41460</v>
+      </c>
+      <c r="H21" s="114">
+        <v>41450</v>
+      </c>
+      <c r="I21" s="113" t="s">
+        <v>221</v>
+      </c>
+      <c r="J21" s="113"/>
+      <c r="K21" s="115" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="70" customFormat="1" ht="28">
       <c r="A22" s="69"/>
-      <c r="B22" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="B22" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="30">
-        <v>41411</v>
-      </c>
-      <c r="H22" s="30">
-        <v>41417</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="64"/>
-    </row>
-    <row r="23" spans="1:11" s="70" customFormat="1" ht="14" customHeight="1">
+      <c r="F22" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="74">
+        <v>41386</v>
+      </c>
+      <c r="I22" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="73"/>
+      <c r="K22" s="116" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="70" customFormat="1" ht="30">
       <c r="A23" s="69"/>
-      <c r="B23" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="B23" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="30">
-        <v>41411</v>
-      </c>
-      <c r="H23" s="30">
-        <v>41417</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="64"/>
-    </row>
-    <row r="24" spans="1:11" s="70" customFormat="1">
+      <c r="F23" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="97">
+        <v>41386</v>
+      </c>
+      <c r="I23" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="96"/>
+      <c r="K23" s="98" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="70" customFormat="1" ht="15">
       <c r="A24" s="69"/>
-      <c r="B24" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>53</v>
+      <c r="B24" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>323</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>19</v>
@@ -5753,26 +6897,28 @@
         <v>55</v>
       </c>
       <c r="G24" s="30">
-        <v>41411</v>
+        <v>41488</v>
       </c>
       <c r="H24" s="30">
-        <v>41417</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="64"/>
+        <v>41445</v>
+      </c>
+      <c r="I24" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24" s="105" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="25" spans="1:11" s="70" customFormat="1">
-      <c r="A25" s="69"/>
+      <c r="A25" s="69">
+        <v>1</v>
+      </c>
       <c r="B25" s="59" t="s">
         <v>84</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>19</v>
@@ -5797,13 +6943,13 @@
       </c>
       <c r="K25" s="64"/>
     </row>
-    <row r="26" spans="1:11" s="70" customFormat="1" ht="30">
+    <row r="26" spans="1:11" s="70" customFormat="1" ht="14" customHeight="1">
       <c r="A26" s="69"/>
       <c r="B26" s="59" t="s">
         <v>84</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>19</v>
@@ -5812,27 +6958,29 @@
         <v>25</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G26" s="30">
-        <v>41460</v>
+        <v>41411</v>
       </c>
       <c r="H26" s="30">
-        <v>41375</v>
+        <v>41417</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="J26" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="K26" s="64"/>
     </row>
-    <row r="27" spans="1:11" s="70" customFormat="1">
+    <row r="27" spans="1:11" s="70" customFormat="1" ht="14" customHeight="1">
       <c r="A27" s="69"/>
       <c r="B27" s="59" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>19</v>
@@ -5841,27 +6989,29 @@
         <v>25</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G27" s="30">
-        <v>41460</v>
+        <v>41411</v>
       </c>
       <c r="H27" s="30">
-        <v>41375</v>
+        <v>41417</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="J27" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="K27" s="64"/>
     </row>
-    <row r="28" spans="1:11" s="70" customFormat="1" ht="14" customHeight="1">
+    <row r="28" spans="1:11" s="70" customFormat="1">
       <c r="A28" s="69"/>
       <c r="B28" s="59" t="s">
         <v>84</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>19</v>
@@ -5870,18 +7020,20 @@
         <v>25</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G28" s="30">
-        <v>41460</v>
+        <v>41411</v>
       </c>
       <c r="H28" s="30">
-        <v>41375</v>
+        <v>41417</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="J28" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="K28" s="64"/>
     </row>
     <row r="29" spans="1:11" s="70" customFormat="1">
@@ -5890,7 +7042,7 @@
         <v>84</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>19</v>
@@ -5899,19 +7051,21 @@
         <v>25</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G29" s="30">
-        <v>41460</v>
+        <v>41411</v>
       </c>
       <c r="H29" s="30">
-        <v>41375</v>
+        <v>41417</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="65"/>
+        <v>5</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="64"/>
     </row>
     <row r="30" spans="1:11" s="70" customFormat="1">
       <c r="A30" s="69"/>
@@ -5919,7 +7073,7 @@
         <v>84</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>19</v>
@@ -5948,7 +7102,7 @@
         <v>84</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>19</v>
@@ -5971,13 +7125,13 @@
       <c r="J31" s="8"/>
       <c r="K31" s="64"/>
     </row>
-    <row r="32" spans="1:11" s="70" customFormat="1">
+    <row r="32" spans="1:11" s="70" customFormat="1" ht="14" customHeight="1">
       <c r="A32" s="69"/>
       <c r="B32" s="59" t="s">
         <v>84</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>61</v>
+        <v>177</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>19</v>
@@ -6006,7 +7160,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>19</v>
@@ -6027,15 +7181,15 @@
         <v>221</v>
       </c>
       <c r="J33" s="8"/>
-      <c r="K33" s="64"/>
-    </row>
-    <row r="34" spans="1:11" s="70" customFormat="1" ht="14" customHeight="1">
+      <c r="K33" s="65"/>
+    </row>
+    <row r="34" spans="1:11" s="70" customFormat="1">
       <c r="A34" s="69"/>
       <c r="B34" s="59" t="s">
         <v>84</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>19</v>
@@ -6058,13 +7212,13 @@
       <c r="J34" s="8"/>
       <c r="K34" s="64"/>
     </row>
-    <row r="35" spans="1:11" s="70" customFormat="1" ht="14" customHeight="1">
+    <row r="35" spans="1:11" s="70" customFormat="1">
       <c r="A35" s="69"/>
       <c r="B35" s="59" t="s">
         <v>84</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>19</v>
@@ -6087,13 +7241,13 @@
       <c r="J35" s="8"/>
       <c r="K35" s="64"/>
     </row>
-    <row r="36" spans="1:11" s="70" customFormat="1" ht="14" customHeight="1">
+    <row r="36" spans="1:11" s="70" customFormat="1">
       <c r="A36" s="69"/>
       <c r="B36" s="59" t="s">
         <v>84</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>19</v>
@@ -6116,13 +7270,13 @@
       <c r="J36" s="8"/>
       <c r="K36" s="64"/>
     </row>
-    <row r="37" spans="1:11" s="70" customFormat="1" ht="14" customHeight="1">
+    <row r="37" spans="1:11" s="70" customFormat="1">
       <c r="A37" s="69"/>
       <c r="B37" s="59" t="s">
         <v>84</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>19</v>
@@ -6151,7 +7305,7 @@
         <v>84</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>19</v>
@@ -6172,15 +7326,15 @@
         <v>221</v>
       </c>
       <c r="J38" s="8"/>
-      <c r="K38" s="66"/>
+      <c r="K38" s="64"/>
     </row>
     <row r="39" spans="1:11" s="70" customFormat="1" ht="14" customHeight="1">
       <c r="A39" s="69"/>
-      <c r="B39" s="55" t="s">
-        <v>85</v>
+      <c r="B39" s="59" t="s">
+        <v>84</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>19</v>
@@ -6189,25 +7343,27 @@
         <v>25</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G39" s="30">
         <v>41460</v>
       </c>
       <c r="H39" s="30">
-        <v>41386</v>
-      </c>
-      <c r="I39" s="8"/>
+        <v>41375</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="J39" s="8"/>
       <c r="K39" s="64"/>
     </row>
     <row r="40" spans="1:11" s="70" customFormat="1" ht="14" customHeight="1">
       <c r="A40" s="69"/>
-      <c r="B40" s="55" t="s">
-        <v>85</v>
+      <c r="B40" s="59" t="s">
+        <v>84</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>19</v>
@@ -6216,25 +7372,27 @@
         <v>25</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G40" s="30">
         <v>41460</v>
       </c>
       <c r="H40" s="30">
-        <v>41386</v>
-      </c>
-      <c r="I40" s="8"/>
+        <v>41375</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="J40" s="8"/>
       <c r="K40" s="64"/>
     </row>
     <row r="41" spans="1:11" s="70" customFormat="1" ht="14" customHeight="1">
       <c r="A41" s="69"/>
-      <c r="B41" s="55" t="s">
-        <v>85</v>
+      <c r="B41" s="59" t="s">
+        <v>84</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>19</v>
@@ -6243,25 +7401,27 @@
         <v>25</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G41" s="30">
         <v>41460</v>
       </c>
       <c r="H41" s="30">
-        <v>41386</v>
-      </c>
-      <c r="I41" s="8"/>
+        <v>41375</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="J41" s="8"/>
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="1:11" s="70" customFormat="1" ht="14" customHeight="1">
       <c r="A42" s="69"/>
-      <c r="B42" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>143</v>
+      <c r="B42" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>19</v>
@@ -6270,27 +7430,27 @@
         <v>25</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G42" s="30">
         <v>41460</v>
       </c>
       <c r="H42" s="30">
-        <v>41386</v>
-      </c>
-      <c r="I42" s="8"/>
+        <v>41375</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="J42" s="8"/>
-      <c r="K42" s="65" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="70" customFormat="1">
+      <c r="K42" s="66"/>
+    </row>
+    <row r="43" spans="1:11" s="70" customFormat="1" ht="14" customHeight="1">
       <c r="A43" s="69"/>
-      <c r="B43" s="59" t="s">
-        <v>84</v>
+      <c r="B43" s="55" t="s">
+        <v>85</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>19</v>
@@ -6299,27 +7459,25 @@
         <v>25</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G43" s="30">
         <v>41460</v>
       </c>
       <c r="H43" s="30">
-        <v>41417</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>5</v>
-      </c>
+        <v>41386</v>
+      </c>
+      <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="64"/>
     </row>
-    <row r="44" spans="1:11" s="70" customFormat="1">
+    <row r="44" spans="1:11" s="70" customFormat="1" ht="14" customHeight="1">
       <c r="A44" s="69"/>
-      <c r="B44" s="59" t="s">
-        <v>84</v>
+      <c r="B44" s="55" t="s">
+        <v>85</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>19</v>
@@ -6331,24 +7489,22 @@
         <v>72</v>
       </c>
       <c r="G44" s="30">
-        <v>41502</v>
+        <v>41460</v>
       </c>
       <c r="H44" s="30">
-        <v>41375</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>77</v>
-      </c>
+        <v>41386</v>
+      </c>
+      <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="64"/>
     </row>
-    <row r="45" spans="1:11" s="70" customFormat="1">
+    <row r="45" spans="1:11" s="70" customFormat="1" ht="14" customHeight="1">
       <c r="A45" s="69"/>
-      <c r="B45" s="59" t="s">
-        <v>84</v>
+      <c r="B45" s="55" t="s">
+        <v>85</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>19</v>
@@ -6360,24 +7516,22 @@
         <v>72</v>
       </c>
       <c r="G45" s="30">
-        <v>41502</v>
+        <v>41460</v>
       </c>
       <c r="H45" s="30">
-        <v>41375</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>77</v>
-      </c>
+        <v>41386</v>
+      </c>
+      <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="64"/>
     </row>
-    <row r="46" spans="1:11" s="70" customFormat="1">
+    <row r="46" spans="1:11" s="70" customFormat="1" ht="14" customHeight="1">
       <c r="A46" s="69"/>
-      <c r="B46" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>71</v>
+      <c r="B46" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>19</v>
@@ -6389,24 +7543,24 @@
         <v>72</v>
       </c>
       <c r="G46" s="30">
-        <v>41502</v>
+        <v>41460</v>
       </c>
       <c r="H46" s="30">
-        <v>41375</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>77</v>
-      </c>
+        <v>41386</v>
+      </c>
+      <c r="I46" s="8"/>
       <c r="J46" s="8"/>
-      <c r="K46" s="64"/>
-    </row>
-    <row r="47" spans="1:11" s="70" customFormat="1" ht="14" customHeight="1">
+      <c r="K46" s="65" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="70" customFormat="1">
       <c r="A47" s="69"/>
       <c r="B47" s="59" t="s">
         <v>84</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>19</v>
@@ -6415,27 +7569,27 @@
         <v>25</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G47" s="30">
-        <v>41502</v>
+        <v>41460</v>
       </c>
       <c r="H47" s="30">
-        <v>41375</v>
+        <v>41417</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="J47" s="8"/>
       <c r="K47" s="64"/>
     </row>
-    <row r="48" spans="1:11" s="70" customFormat="1" ht="14" customHeight="1">
+    <row r="48" spans="1:11" s="70" customFormat="1">
       <c r="A48" s="69"/>
       <c r="B48" s="59" t="s">
         <v>84</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>19</v>
@@ -6444,10 +7598,10 @@
         <v>25</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G48" s="30">
-        <v>41516</v>
+        <v>41502</v>
       </c>
       <c r="H48" s="30">
         <v>41375</v>
@@ -6456,15 +7610,15 @@
         <v>77</v>
       </c>
       <c r="J48" s="8"/>
-      <c r="K48" s="66"/>
-    </row>
-    <row r="49" spans="1:11" s="70" customFormat="1" ht="14" customHeight="1">
+      <c r="K48" s="64"/>
+    </row>
+    <row r="49" spans="1:11" s="70" customFormat="1">
       <c r="A49" s="69"/>
       <c r="B49" s="59" t="s">
         <v>84</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>19</v>
@@ -6473,10 +7627,10 @@
         <v>25</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G49" s="30">
-        <v>41516</v>
+        <v>41502</v>
       </c>
       <c r="H49" s="30">
         <v>41375</v>
@@ -6487,13 +7641,13 @@
       <c r="J49" s="8"/>
       <c r="K49" s="64"/>
     </row>
-    <row r="50" spans="1:11" s="70" customFormat="1" ht="14" customHeight="1">
+    <row r="50" spans="1:11" s="70" customFormat="1">
       <c r="A50" s="69"/>
       <c r="B50" s="59" t="s">
         <v>84</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>19</v>
@@ -6502,10 +7656,10 @@
         <v>25</v>
       </c>
       <c r="F50" s="30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G50" s="30">
-        <v>41516</v>
+        <v>41502</v>
       </c>
       <c r="H50" s="30">
         <v>41375</v>
@@ -6514,15 +7668,15 @@
         <v>77</v>
       </c>
       <c r="J50" s="8"/>
-      <c r="K50" s="67"/>
-    </row>
-    <row r="51" spans="1:11" s="70" customFormat="1">
+      <c r="K50" s="64"/>
+    </row>
+    <row r="51" spans="1:11" s="70" customFormat="1" ht="14" customHeight="1">
       <c r="A51" s="69"/>
       <c r="B51" s="59" t="s">
         <v>84</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>19</v>
@@ -6531,10 +7685,10 @@
         <v>25</v>
       </c>
       <c r="F51" s="30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G51" s="30">
-        <v>41516</v>
+        <v>41502</v>
       </c>
       <c r="H51" s="30">
         <v>41375</v>
@@ -6545,13 +7699,13 @@
       <c r="J51" s="8"/>
       <c r="K51" s="64"/>
     </row>
-    <row r="52" spans="1:11" s="70" customFormat="1">
+    <row r="52" spans="1:11" s="70" customFormat="1" ht="14" customHeight="1">
       <c r="A52" s="69"/>
-      <c r="B52" s="55" t="s">
-        <v>85</v>
+      <c r="B52" s="59" t="s">
+        <v>84</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>19</v>
@@ -6560,27 +7714,27 @@
         <v>25</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G52" s="30" t="s">
-        <v>169</v>
+        <v>76</v>
+      </c>
+      <c r="G52" s="30">
+        <v>41516</v>
       </c>
       <c r="H52" s="30">
-        <v>41386</v>
-      </c>
-      <c r="I52" s="8"/>
+        <v>41375</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="J52" s="8"/>
-      <c r="K52" s="64" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="70" customFormat="1" ht="56">
+      <c r="K52" s="66"/>
+    </row>
+    <row r="53" spans="1:11" s="70" customFormat="1" ht="14" customHeight="1">
       <c r="A53" s="69"/>
-      <c r="B53" s="55" t="s">
-        <v>85</v>
+      <c r="B53" s="59" t="s">
+        <v>84</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>19</v>
@@ -6589,27 +7743,27 @@
         <v>25</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="G53" s="30" t="s">
-        <v>166</v>
+        <v>76</v>
+      </c>
+      <c r="G53" s="30">
+        <v>41516</v>
       </c>
       <c r="H53" s="30">
-        <v>41386</v>
-      </c>
-      <c r="I53" s="8"/>
+        <v>41375</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="J53" s="8"/>
-      <c r="K53" s="64" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="70" customFormat="1" ht="56">
-      <c r="A54" s="75"/>
-      <c r="B54" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>147</v>
+      <c r="K53" s="64"/>
+    </row>
+    <row r="54" spans="1:11" s="70" customFormat="1" ht="14" customHeight="1">
+      <c r="A54" s="69"/>
+      <c r="B54" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>19</v>
@@ -6620,25 +7774,25 @@
       <c r="F54" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="G54" s="30" t="s">
-        <v>170</v>
+      <c r="G54" s="30">
+        <v>41516</v>
       </c>
       <c r="H54" s="30">
-        <v>41386</v>
-      </c>
-      <c r="I54" s="8"/>
+        <v>41375</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="J54" s="8"/>
-      <c r="K54" s="64" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="70" customFormat="1" ht="70">
+      <c r="K54" s="67"/>
+    </row>
+    <row r="55" spans="1:11" s="70" customFormat="1">
       <c r="A55" s="69"/>
-      <c r="B55" s="55" t="s">
-        <v>85</v>
+      <c r="B55" s="59" t="s">
+        <v>84</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>19</v>
@@ -6647,27 +7801,27 @@
         <v>25</v>
       </c>
       <c r="F55" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="G55" s="63" t="s">
-        <v>168</v>
+        <v>76</v>
+      </c>
+      <c r="G55" s="30">
+        <v>41516</v>
       </c>
       <c r="H55" s="30">
-        <v>41376</v>
-      </c>
-      <c r="I55" s="8"/>
+        <v>41375</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="J55" s="8"/>
-      <c r="K55" s="64" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="70" customFormat="1" ht="42">
+      <c r="K55" s="64"/>
+    </row>
+    <row r="56" spans="1:11" s="70" customFormat="1" ht="56">
       <c r="A56" s="69"/>
       <c r="B56" s="55" t="s">
         <v>85</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>19</v>
@@ -6675,140 +7829,140 @@
       <c r="E56" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F56" t="s">
-        <v>44</v>
+      <c r="F56" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="G56" s="30" t="s">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="H56" s="30">
+        <v>41386</v>
+      </c>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="64" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="70" customFormat="1" ht="56">
+      <c r="A57" s="69"/>
+      <c r="B57" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="G57" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="H57" s="30">
+        <v>41386</v>
+      </c>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="64" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="70" customFormat="1" ht="70">
+      <c r="A58" s="75"/>
+      <c r="B58" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G58" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="H58" s="30">
+        <v>41386</v>
+      </c>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="64" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="70" customFormat="1" ht="28">
+      <c r="A59" s="69"/>
+      <c r="B59" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="G59" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="H59" s="30">
         <v>41376</v>
       </c>
-      <c r="I56" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J56" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K56" s="64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="70" customFormat="1" ht="42">
-      <c r="A57" s="69"/>
-      <c r="B57" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="D57" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="F57" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="G57" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="H57" s="58">
-        <v>41376</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="68"/>
-    </row>
-    <row r="58" spans="1:11" s="70" customFormat="1">
-      <c r="A58" s="69"/>
-      <c r="B58" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="F58" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="G58" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="H58" s="58">
-        <v>41376</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J58" s="8"/>
-      <c r="K58" s="68"/>
-    </row>
-    <row r="59" spans="1:11" s="70" customFormat="1">
-      <c r="A59" s="69"/>
-      <c r="B59" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="F59" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="G59" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="H59" s="58">
-        <v>41376</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>0</v>
-      </c>
+      <c r="I59" s="8"/>
       <c r="J59" s="8"/>
-      <c r="K59" s="68"/>
+      <c r="K59" s="64" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="60" spans="1:11" s="70" customFormat="1" ht="42">
       <c r="A60" s="69"/>
-      <c r="B60" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="D60" s="57" t="s">
+      <c r="B60" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="57" t="s">
+      <c r="E60" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F60" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="G60" s="58" t="s">
+      <c r="F60" t="s">
+        <v>44</v>
+      </c>
+      <c r="G60" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="H60" s="58">
+      <c r="H60" s="30">
         <v>41376</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J60" s="8"/>
-      <c r="K60" s="68"/>
+        <v>5</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K60" s="64" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="61" spans="1:11" s="70" customFormat="1">
       <c r="A61" s="69"/>
@@ -6816,7 +7970,7 @@
         <v>84</v>
       </c>
       <c r="C61" s="71" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D61" s="57" t="s">
         <v>19</v>
@@ -6841,151 +7995,215 @@
     </row>
     <row r="62" spans="1:11" s="70" customFormat="1">
       <c r="A62" s="69"/>
-      <c r="B62" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D62" s="8" t="s">
+      <c r="B62" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="G62" s="30" t="s">
+      <c r="F62" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="G62" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="H62" s="30">
-        <v>41386</v>
-      </c>
-      <c r="I62" s="8"/>
+      <c r="H62" s="58">
+        <v>41376</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>0</v>
+      </c>
       <c r="J62" s="8"/>
-      <c r="K62" s="64"/>
-    </row>
-    <row r="63" spans="1:11" s="70" customFormat="1">
+      <c r="K62" s="68"/>
+    </row>
+    <row r="63" spans="1:11" s="70" customFormat="1" ht="42">
       <c r="A63" s="69"/>
-      <c r="B63" s="59" t="s">
+      <c r="B63" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="95" t="s">
-        <v>162</v>
-      </c>
-      <c r="D63" s="96" t="s">
+      <c r="C63" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="96" t="s">
+      <c r="E63" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="F63" s="97" t="s">
-        <v>139</v>
-      </c>
-      <c r="G63" s="97" t="s">
+      <c r="F63" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="G63" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="H63" s="97">
-        <v>41395</v>
-      </c>
-      <c r="I63" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="J63" s="96"/>
-      <c r="K63" s="98" t="s">
-        <v>195</v>
-      </c>
+      <c r="H63" s="58">
+        <v>41376</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J63" s="8"/>
+      <c r="K63" s="68"/>
     </row>
     <row r="64" spans="1:11" s="70" customFormat="1">
       <c r="A64" s="69"/>
-      <c r="B64" s="55" t="s">
+      <c r="B64" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="D64" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="G64" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" s="58">
+        <v>41376</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64" s="8"/>
+      <c r="K64" s="68"/>
+    </row>
+    <row r="65" spans="1:11" s="70" customFormat="1">
+      <c r="A65" s="69"/>
+      <c r="B65" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="G65" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="H65" s="58">
+        <v>41376</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J65" s="8"/>
+      <c r="K65" s="68"/>
+    </row>
+    <row r="66" spans="1:11" s="70" customFormat="1">
+      <c r="A66" s="69"/>
+      <c r="B66" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C66" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="G66" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H66" s="30">
+        <v>41386</v>
+      </c>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="64"/>
+    </row>
+    <row r="67" spans="1:11" s="70" customFormat="1" ht="15">
+      <c r="A67" s="69"/>
+      <c r="B67" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="95" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="96" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" s="97" t="s">
+        <v>139</v>
+      </c>
+      <c r="G67" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="H67" s="97">
+        <v>41395</v>
+      </c>
+      <c r="I67" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="J67" s="96"/>
+      <c r="K67" s="98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="70" customFormat="1">
+      <c r="A68" s="69"/>
+      <c r="B68" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D68" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E68" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30">
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30">
         <v>41386</v>
       </c>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="64" t="s">
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="64" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="9"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="44"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="9"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="44"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="9"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="44"/>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="9"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="44"/>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="9"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="27"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="30"/>
       <c r="G69" s="30"/>
       <c r="H69" s="30"/>
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="45"/>
+      <c r="K69" s="44"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="9"/>
@@ -6993,7 +8211,7 @@
       <c r="C70" s="10"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
-      <c r="F70" s="27"/>
+      <c r="F70" s="30"/>
       <c r="G70" s="30"/>
       <c r="H70" s="30"/>
       <c r="I70" s="11"/>
@@ -7024,20 +8242,20 @@
       <c r="H72" s="30"/>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="46"/>
+      <c r="K72" s="44"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="9"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
       <c r="F73" s="27"/>
       <c r="G73" s="30"/>
       <c r="H73" s="30"/>
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="46"/>
+      <c r="K73" s="45"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="9"/>
@@ -7076,14 +8294,14 @@
       <c r="H76" s="30"/>
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="44"/>
+      <c r="K76" s="46"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="9"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
       <c r="F77" s="27"/>
       <c r="G77" s="30"/>
       <c r="H77" s="30"/>
@@ -7093,16 +8311,16 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="9"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
       <c r="F78" s="27"/>
       <c r="G78" s="30"/>
       <c r="H78" s="30"/>
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="46"/>
+      <c r="K78" s="44"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="9"/>
@@ -7128,33 +8346,33 @@
       <c r="H80" s="30"/>
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="46"/>
+      <c r="K80" s="44"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="23"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
       <c r="F81" s="27"/>
       <c r="G81" s="30"/>
       <c r="H81" s="30"/>
       <c r="I81" s="11"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="47"/>
+      <c r="K81" s="46"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="9"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
       <c r="F82" s="27"/>
       <c r="G82" s="30"/>
       <c r="H82" s="30"/>
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="44"/>
+      <c r="K82" s="46"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="9"/>
@@ -7180,20 +8398,20 @@
       <c r="H84" s="30"/>
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="44"/>
+      <c r="K84" s="46"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="9"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
+      <c r="A85" s="23"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
       <c r="F85" s="27"/>
       <c r="G85" s="30"/>
       <c r="H85" s="30"/>
       <c r="I85" s="11"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="44"/>
+      <c r="K85" s="47"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="9"/>
@@ -7327,16 +8545,16 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="9"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
       <c r="I96" s="11"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="48"/>
+      <c r="K96" s="44"/>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="9"/>
@@ -7357,9 +8575,9 @@
       <c r="C98" s="10"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="31"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
       <c r="I98" s="11"/>
       <c r="J98" s="11"/>
       <c r="K98" s="44"/>
@@ -7379,16 +8597,16 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="9"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="30"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31"/>
       <c r="I100" s="11"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="44"/>
+      <c r="K100" s="48"/>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="9"/>
@@ -7404,56 +8622,56 @@
       <c r="K101" s="44"/>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="23"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="33"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="30"/>
-      <c r="H102" s="30"/>
+      <c r="A102" s="9"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="31"/>
+      <c r="H102" s="31"/>
       <c r="I102" s="11"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="47"/>
+      <c r="K102" s="44"/>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="23"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="33"/>
-      <c r="E103" s="33"/>
+      <c r="A103" s="9"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
       <c r="F103" s="27"/>
       <c r="G103" s="30"/>
       <c r="H103" s="30"/>
       <c r="I103" s="11"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="47"/>
+      <c r="K103" s="44"/>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="23"/>
-      <c r="B104" s="24"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="33"/>
-      <c r="E104" s="33"/>
+      <c r="A104" s="9"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
       <c r="F104" s="27"/>
       <c r="G104" s="30"/>
       <c r="H104" s="30"/>
       <c r="I104" s="11"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="47"/>
+      <c r="K104" s="44"/>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="23"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
+      <c r="A105" s="9"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
       <c r="F105" s="27"/>
       <c r="G105" s="30"/>
       <c r="H105" s="30"/>
       <c r="I105" s="11"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="47"/>
+      <c r="K105" s="44"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="23"/>
@@ -7518,7 +8736,7 @@
       <c r="H110" s="30"/>
       <c r="I110" s="11"/>
       <c r="J110" s="11"/>
-      <c r="K110" s="49"/>
+      <c r="K110" s="47"/>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="23"/>
@@ -7560,69 +8778,69 @@
       <c r="K113" s="47"/>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="9"/>
-      <c r="B114" s="13"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="28"/>
-      <c r="G114" s="31"/>
-      <c r="H114" s="31"/>
+      <c r="A114" s="23"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="30"/>
       <c r="I114" s="11"/>
       <c r="J114" s="11"/>
-      <c r="K114" s="45"/>
+      <c r="K114" s="49"/>
     </row>
     <row r="115" spans="1:11">
-      <c r="A115" s="9"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
+      <c r="A115" s="23"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="33"/>
       <c r="F115" s="27"/>
       <c r="G115" s="30"/>
       <c r="H115" s="30"/>
       <c r="I115" s="11"/>
       <c r="J115" s="11"/>
-      <c r="K115" s="44"/>
+      <c r="K115" s="47"/>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="9"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
+      <c r="A116" s="23"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="33"/>
       <c r="F116" s="27"/>
       <c r="G116" s="30"/>
       <c r="H116" s="30"/>
       <c r="I116" s="11"/>
       <c r="J116" s="11"/>
-      <c r="K116" s="44"/>
+      <c r="K116" s="47"/>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="9"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
+      <c r="A117" s="23"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="33"/>
       <c r="F117" s="27"/>
       <c r="G117" s="30"/>
       <c r="H117" s="30"/>
       <c r="I117" s="11"/>
       <c r="J117" s="11"/>
-      <c r="K117" s="44"/>
+      <c r="K117" s="47"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="9"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="30"/>
-      <c r="H118" s="30"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="31"/>
+      <c r="H118" s="31"/>
       <c r="I118" s="11"/>
       <c r="J118" s="11"/>
-      <c r="K118" s="44"/>
+      <c r="K118" s="45"/>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="9"/>
@@ -7730,10 +8948,10 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="9"/>
-      <c r="B127" s="13"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
       <c r="F127" s="27"/>
       <c r="G127" s="30"/>
       <c r="H127" s="30"/>
@@ -7743,10 +8961,10 @@
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="9"/>
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
       <c r="F128" s="27"/>
       <c r="G128" s="30"/>
       <c r="H128" s="30"/>
@@ -7782,10 +9000,10 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="9"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
       <c r="F131" s="27"/>
       <c r="G131" s="30"/>
       <c r="H131" s="30"/>
@@ -7795,10 +9013,10 @@
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="9"/>
-      <c r="B132" s="10"/>
-      <c r="C132" s="10"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
       <c r="F132" s="27"/>
       <c r="G132" s="30"/>
       <c r="H132" s="30"/>
@@ -7833,115 +9051,115 @@
       <c r="K134" s="44"/>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="23"/>
-      <c r="B135" s="24"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="33"/>
-      <c r="E135" s="33"/>
+      <c r="A135" s="9"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
       <c r="F135" s="27"/>
       <c r="G135" s="30"/>
       <c r="H135" s="30"/>
       <c r="I135" s="11"/>
       <c r="J135" s="11"/>
-      <c r="K135" s="47"/>
+      <c r="K135" s="44"/>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="23"/>
-      <c r="B136" s="24"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="33"/>
-      <c r="E136" s="33"/>
+      <c r="A136" s="9"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
       <c r="F136" s="27"/>
       <c r="G136" s="30"/>
       <c r="H136" s="30"/>
       <c r="I136" s="11"/>
       <c r="J136" s="11"/>
-      <c r="K136" s="47"/>
+      <c r="K136" s="44"/>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="23"/>
-      <c r="B137" s="24"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
+      <c r="A137" s="9"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
       <c r="F137" s="27"/>
       <c r="G137" s="30"/>
       <c r="H137" s="30"/>
       <c r="I137" s="11"/>
       <c r="J137" s="11"/>
-      <c r="K137" s="47"/>
+      <c r="K137" s="44"/>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="23"/>
-      <c r="B138" s="24"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="33"/>
-      <c r="E138" s="33"/>
+      <c r="A138" s="9"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
       <c r="F138" s="27"/>
       <c r="G138" s="30"/>
       <c r="H138" s="30"/>
       <c r="I138" s="11"/>
       <c r="J138" s="11"/>
-      <c r="K138" s="47"/>
+      <c r="K138" s="44"/>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="9"/>
-      <c r="B139" s="13"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
+      <c r="A139" s="23"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="33"/>
       <c r="F139" s="27"/>
       <c r="G139" s="30"/>
       <c r="H139" s="30"/>
       <c r="I139" s="11"/>
       <c r="J139" s="11"/>
-      <c r="K139" s="44"/>
+      <c r="K139" s="47"/>
     </row>
     <row r="140" spans="1:11">
-      <c r="A140" s="9"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
+      <c r="A140" s="23"/>
+      <c r="B140" s="24"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="33"/>
       <c r="F140" s="27"/>
       <c r="G140" s="30"/>
       <c r="H140" s="30"/>
       <c r="I140" s="11"/>
       <c r="J140" s="11"/>
-      <c r="K140" s="44"/>
-    </row>
-    <row r="141" spans="1:11" ht="14" customHeight="1">
-      <c r="A141" s="9"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
+      <c r="K140" s="47"/>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="23"/>
+      <c r="B141" s="24"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="33"/>
       <c r="F141" s="27"/>
       <c r="G141" s="30"/>
       <c r="H141" s="30"/>
       <c r="I141" s="11"/>
       <c r="J141" s="11"/>
-      <c r="K141" s="44"/>
+      <c r="K141" s="47"/>
     </row>
     <row r="142" spans="1:11">
-      <c r="A142" s="9"/>
-      <c r="B142" s="10"/>
-      <c r="C142" s="10"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
+      <c r="A142" s="23"/>
+      <c r="B142" s="24"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
       <c r="F142" s="27"/>
       <c r="G142" s="30"/>
       <c r="H142" s="30"/>
       <c r="I142" s="11"/>
       <c r="J142" s="11"/>
-      <c r="K142" s="44"/>
-    </row>
-    <row r="143" spans="1:11" ht="14" customHeight="1">
+      <c r="K142" s="47"/>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="9"/>
-      <c r="B143" s="10"/>
-      <c r="C143" s="10"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
       <c r="F143" s="27"/>
       <c r="G143" s="30"/>
       <c r="H143" s="30"/>
@@ -7964,18 +9182,18 @@
     </row>
     <row r="145" spans="1:11" ht="14" customHeight="1">
       <c r="A145" s="9"/>
-      <c r="B145" s="13"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
       <c r="F145" s="27"/>
       <c r="G145" s="30"/>
       <c r="H145" s="30"/>
       <c r="I145" s="11"/>
       <c r="J145" s="11"/>
-      <c r="K145" s="50"/>
-    </row>
-    <row r="146" spans="1:11" ht="14" customHeight="1">
+      <c r="K145" s="44"/>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="9"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -7988,12 +9206,12 @@
       <c r="J146" s="11"/>
       <c r="K146" s="44"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" ht="14" customHeight="1">
       <c r="A147" s="9"/>
-      <c r="B147" s="13"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
       <c r="F147" s="27"/>
       <c r="G147" s="30"/>
       <c r="H147" s="30"/>
@@ -8014,25 +9232,25 @@
       <c r="J148" s="11"/>
       <c r="K148" s="44"/>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" ht="14" customHeight="1">
       <c r="A149" s="9"/>
-      <c r="B149" s="10"/>
-      <c r="C149" s="10"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
+      <c r="B149" s="13"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
       <c r="F149" s="27"/>
       <c r="G149" s="30"/>
       <c r="H149" s="30"/>
       <c r="I149" s="11"/>
       <c r="J149" s="11"/>
-      <c r="K149" s="44"/>
-    </row>
-    <row r="150" spans="1:11">
+      <c r="K149" s="50"/>
+    </row>
+    <row r="150" spans="1:11" ht="14" customHeight="1">
       <c r="A150" s="9"/>
-      <c r="B150" s="13"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
       <c r="F150" s="27"/>
       <c r="G150" s="30"/>
       <c r="H150" s="30"/>
@@ -8079,12 +9297,12 @@
       <c r="J153" s="11"/>
       <c r="K153" s="44"/>
     </row>
-    <row r="154" spans="1:11" ht="14" customHeight="1">
+    <row r="154" spans="1:11">
       <c r="A154" s="9"/>
-      <c r="B154" s="10"/>
-      <c r="C154" s="10"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
+      <c r="B154" s="13"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="14"/>
       <c r="F154" s="27"/>
       <c r="G154" s="30"/>
       <c r="H154" s="30"/>
@@ -8092,12 +9310,12 @@
       <c r="J154" s="11"/>
       <c r="K154" s="44"/>
     </row>
-    <row r="155" spans="1:11" ht="14" customHeight="1">
+    <row r="155" spans="1:11">
       <c r="A155" s="9"/>
-      <c r="B155" s="10"/>
-      <c r="C155" s="10"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
+      <c r="B155" s="13"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="14"/>
       <c r="F155" s="27"/>
       <c r="G155" s="30"/>
       <c r="H155" s="30"/>
@@ -8131,12 +9349,12 @@
       <c r="J157" s="11"/>
       <c r="K157" s="44"/>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" ht="14" customHeight="1">
       <c r="A158" s="9"/>
-      <c r="B158" s="13"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="14"/>
-      <c r="E158" s="14"/>
+      <c r="B158" s="10"/>
+      <c r="C158" s="10"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
       <c r="F158" s="27"/>
       <c r="G158" s="30"/>
       <c r="H158" s="30"/>
@@ -8144,7 +9362,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="44"/>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" ht="14" customHeight="1">
       <c r="A159" s="9"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -8172,23 +9390,23 @@
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="9"/>
-      <c r="B161" s="26"/>
-      <c r="C161" s="26"/>
-      <c r="D161" s="36"/>
-      <c r="E161" s="36"/>
-      <c r="F161" s="28"/>
-      <c r="G161" s="31"/>
-      <c r="H161" s="31"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="27"/>
+      <c r="G161" s="30"/>
+      <c r="H161" s="30"/>
       <c r="I161" s="11"/>
       <c r="J161" s="11"/>
-      <c r="K161" s="45"/>
+      <c r="K161" s="44"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="9"/>
-      <c r="B162" s="10"/>
-      <c r="C162" s="10"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="14"/>
       <c r="F162" s="27"/>
       <c r="G162" s="30"/>
       <c r="H162" s="30"/>
@@ -8224,29 +9442,29 @@
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="9"/>
-      <c r="B165" s="10"/>
-      <c r="C165" s="10"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
-      <c r="F165" s="27"/>
-      <c r="G165" s="30"/>
-      <c r="H165" s="30"/>
+      <c r="B165" s="26"/>
+      <c r="C165" s="26"/>
+      <c r="D165" s="36"/>
+      <c r="E165" s="36"/>
+      <c r="F165" s="28"/>
+      <c r="G165" s="31"/>
+      <c r="H165" s="31"/>
       <c r="I165" s="11"/>
       <c r="J165" s="11"/>
-      <c r="K165" s="44"/>
+      <c r="K165" s="45"/>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="9"/>
-      <c r="B166" s="13"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="28"/>
-      <c r="G166" s="31"/>
-      <c r="H166" s="31"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="27"/>
+      <c r="G166" s="30"/>
+      <c r="H166" s="30"/>
       <c r="I166" s="11"/>
       <c r="J166" s="11"/>
-      <c r="K166" s="45"/>
+      <c r="K166" s="44"/>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="9"/>
@@ -8267,25 +9485,25 @@
       <c r="C168" s="10"/>
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
-      <c r="F168" s="28"/>
-      <c r="G168" s="31"/>
-      <c r="H168" s="31"/>
+      <c r="F168" s="27"/>
+      <c r="G168" s="30"/>
+      <c r="H168" s="30"/>
       <c r="I168" s="11"/>
       <c r="J168" s="11"/>
       <c r="K168" s="44"/>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="9"/>
-      <c r="B169" s="13"/>
-      <c r="C169" s="13"/>
-      <c r="D169" s="14"/>
-      <c r="E169" s="14"/>
-      <c r="F169" s="28"/>
-      <c r="G169" s="31"/>
-      <c r="H169" s="31"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="27"/>
+      <c r="G169" s="30"/>
+      <c r="H169" s="30"/>
       <c r="I169" s="11"/>
       <c r="J169" s="11"/>
-      <c r="K169" s="45"/>
+      <c r="K169" s="44"/>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="9"/>
@@ -8315,13 +9533,13 @@
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="9"/>
-      <c r="B172" s="13"/>
-      <c r="C172" s="13"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="14"/>
-      <c r="F172" s="27"/>
-      <c r="G172" s="30"/>
-      <c r="H172" s="30"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="10"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="8"/>
+      <c r="F172" s="28"/>
+      <c r="G172" s="31"/>
+      <c r="H172" s="31"/>
       <c r="I172" s="11"/>
       <c r="J172" s="11"/>
       <c r="K172" s="44"/>
@@ -8341,16 +9559,16 @@
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="9"/>
-      <c r="B174" s="10"/>
-      <c r="C174" s="10"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="27"/>
-      <c r="G174" s="30"/>
-      <c r="H174" s="30"/>
+      <c r="B174" s="13"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="14"/>
+      <c r="E174" s="14"/>
+      <c r="F174" s="28"/>
+      <c r="G174" s="31"/>
+      <c r="H174" s="31"/>
       <c r="I174" s="11"/>
       <c r="J174" s="11"/>
-      <c r="K174" s="44"/>
+      <c r="K174" s="45"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="9"/>
@@ -8367,10 +9585,10 @@
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="9"/>
-      <c r="B176" s="10"/>
-      <c r="C176" s="10"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
+      <c r="B176" s="13"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="14"/>
+      <c r="E176" s="14"/>
       <c r="F176" s="27"/>
       <c r="G176" s="30"/>
       <c r="H176" s="30"/>
@@ -8380,42 +9598,42 @@
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="9"/>
-      <c r="B177" s="10"/>
-      <c r="C177" s="10"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
-      <c r="F177" s="27"/>
-      <c r="G177" s="30"/>
-      <c r="H177" s="30"/>
+      <c r="B177" s="13"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="14"/>
+      <c r="E177" s="14"/>
+      <c r="F177" s="28"/>
+      <c r="G177" s="31"/>
+      <c r="H177" s="31"/>
       <c r="I177" s="11"/>
       <c r="J177" s="11"/>
-      <c r="K177" s="44"/>
+      <c r="K177" s="45"/>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="9"/>
-      <c r="B178" s="13"/>
-      <c r="C178" s="13"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="14"/>
-      <c r="F178" s="28"/>
-      <c r="G178" s="31"/>
-      <c r="H178" s="31"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="10"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="8"/>
+      <c r="F178" s="27"/>
+      <c r="G178" s="30"/>
+      <c r="H178" s="30"/>
       <c r="I178" s="11"/>
       <c r="J178" s="11"/>
-      <c r="K178" s="45"/>
+      <c r="K178" s="44"/>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="9"/>
-      <c r="B179" s="13"/>
-      <c r="C179" s="13"/>
-      <c r="D179" s="14"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="28"/>
-      <c r="G179" s="31"/>
-      <c r="H179" s="31"/>
+      <c r="B179" s="10"/>
+      <c r="C179" s="10"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="27"/>
+      <c r="G179" s="30"/>
+      <c r="H179" s="30"/>
       <c r="I179" s="11"/>
       <c r="J179" s="11"/>
-      <c r="K179" s="45"/>
+      <c r="K179" s="44"/>
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="9"/>
@@ -8428,7 +9646,7 @@
       <c r="H180" s="30"/>
       <c r="I180" s="11"/>
       <c r="J180" s="11"/>
-      <c r="K180" s="51"/>
+      <c r="K180" s="44"/>
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="9"/>
@@ -8458,10 +9676,10 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="9"/>
-      <c r="B183" s="10"/>
-      <c r="C183" s="10"/>
-      <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
+      <c r="B183" s="13"/>
+      <c r="C183" s="13"/>
+      <c r="D183" s="14"/>
+      <c r="E183" s="14"/>
       <c r="F183" s="28"/>
       <c r="G183" s="31"/>
       <c r="H183" s="31"/>
@@ -8480,7 +9698,7 @@
       <c r="H184" s="30"/>
       <c r="I184" s="11"/>
       <c r="J184" s="11"/>
-      <c r="K184" s="44"/>
+      <c r="K184" s="51"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="9"/>
@@ -8514,12 +9732,12 @@
       <c r="C187" s="10"/>
       <c r="D187" s="8"/>
       <c r="E187" s="8"/>
-      <c r="F187" s="27"/>
-      <c r="G187" s="30"/>
-      <c r="H187" s="30"/>
+      <c r="F187" s="28"/>
+      <c r="G187" s="31"/>
+      <c r="H187" s="31"/>
       <c r="I187" s="11"/>
       <c r="J187" s="11"/>
-      <c r="K187" s="44"/>
+      <c r="K187" s="45"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="9"/>
@@ -8536,68 +9754,68 @@
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="9"/>
-      <c r="B189" s="13"/>
-      <c r="C189" s="13"/>
-      <c r="D189" s="14"/>
-      <c r="E189" s="14"/>
-      <c r="F189" s="28"/>
-      <c r="G189" s="31"/>
-      <c r="H189" s="31"/>
+      <c r="B189" s="10"/>
+      <c r="C189" s="10"/>
+      <c r="D189" s="8"/>
+      <c r="E189" s="8"/>
+      <c r="F189" s="27"/>
+      <c r="G189" s="30"/>
+      <c r="H189" s="30"/>
       <c r="I189" s="11"/>
       <c r="J189" s="11"/>
-      <c r="K189" s="45"/>
+      <c r="K189" s="44"/>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="9"/>
-      <c r="B190" s="10"/>
-      <c r="C190" s="10"/>
-      <c r="D190" s="8"/>
-      <c r="E190" s="8"/>
-      <c r="F190" s="27"/>
-      <c r="G190" s="30"/>
-      <c r="H190" s="30"/>
+      <c r="B190" s="13"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="14"/>
+      <c r="F190" s="28"/>
+      <c r="G190" s="31"/>
+      <c r="H190" s="31"/>
       <c r="I190" s="11"/>
       <c r="J190" s="11"/>
-      <c r="K190" s="44"/>
+      <c r="K190" s="45"/>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="9"/>
-      <c r="B191" s="13"/>
-      <c r="C191" s="13"/>
-      <c r="D191" s="14"/>
-      <c r="E191" s="14"/>
-      <c r="F191" s="28"/>
-      <c r="G191" s="31"/>
-      <c r="H191" s="31"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="8"/>
+      <c r="E191" s="8"/>
+      <c r="F191" s="27"/>
+      <c r="G191" s="30"/>
+      <c r="H191" s="30"/>
       <c r="I191" s="11"/>
       <c r="J191" s="11"/>
-      <c r="K191" s="45"/>
+      <c r="K191" s="44"/>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="9"/>
-      <c r="B192" s="13"/>
-      <c r="C192" s="13"/>
-      <c r="D192" s="14"/>
-      <c r="E192" s="14"/>
-      <c r="F192" s="28"/>
-      <c r="G192" s="31"/>
-      <c r="H192" s="31"/>
+      <c r="B192" s="10"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="8"/>
+      <c r="E192" s="8"/>
+      <c r="F192" s="27"/>
+      <c r="G192" s="30"/>
+      <c r="H192" s="30"/>
       <c r="I192" s="11"/>
       <c r="J192" s="11"/>
-      <c r="K192" s="45"/>
+      <c r="K192" s="44"/>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="9"/>
-      <c r="B193" s="10"/>
-      <c r="C193" s="10"/>
-      <c r="D193" s="8"/>
-      <c r="E193" s="8"/>
-      <c r="F193" s="27"/>
-      <c r="G193" s="30"/>
-      <c r="H193" s="30"/>
+      <c r="B193" s="13"/>
+      <c r="C193" s="13"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="14"/>
+      <c r="F193" s="28"/>
+      <c r="G193" s="31"/>
+      <c r="H193" s="31"/>
       <c r="I193" s="11"/>
       <c r="J193" s="11"/>
-      <c r="K193" s="44"/>
+      <c r="K193" s="45"/>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="9"/>
@@ -8614,29 +9832,29 @@
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="9"/>
-      <c r="B195" s="10"/>
-      <c r="C195" s="10"/>
-      <c r="D195" s="8"/>
-      <c r="E195" s="8"/>
-      <c r="F195" s="27"/>
-      <c r="G195" s="30"/>
-      <c r="H195" s="30"/>
+      <c r="B195" s="13"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="14"/>
+      <c r="E195" s="14"/>
+      <c r="F195" s="28"/>
+      <c r="G195" s="31"/>
+      <c r="H195" s="31"/>
       <c r="I195" s="11"/>
       <c r="J195" s="11"/>
-      <c r="K195" s="52"/>
+      <c r="K195" s="45"/>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="9"/>
-      <c r="B196" s="10"/>
-      <c r="C196" s="10"/>
-      <c r="D196" s="8"/>
-      <c r="E196" s="8"/>
-      <c r="F196" s="27"/>
-      <c r="G196" s="30"/>
-      <c r="H196" s="30"/>
+      <c r="B196" s="13"/>
+      <c r="C196" s="13"/>
+      <c r="D196" s="14"/>
+      <c r="E196" s="14"/>
+      <c r="F196" s="28"/>
+      <c r="G196" s="31"/>
+      <c r="H196" s="31"/>
       <c r="I196" s="11"/>
       <c r="J196" s="11"/>
-      <c r="K196" s="44"/>
+      <c r="K196" s="45"/>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="9"/>
@@ -8653,16 +9871,16 @@
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="9"/>
-      <c r="B198" s="13"/>
-      <c r="C198" s="13"/>
-      <c r="D198" s="14"/>
-      <c r="E198" s="14"/>
-      <c r="F198" s="28"/>
-      <c r="G198" s="31"/>
-      <c r="H198" s="31"/>
+      <c r="B198" s="10"/>
+      <c r="C198" s="10"/>
+      <c r="D198" s="8"/>
+      <c r="E198" s="8"/>
+      <c r="F198" s="27"/>
+      <c r="G198" s="30"/>
+      <c r="H198" s="30"/>
       <c r="I198" s="11"/>
       <c r="J198" s="11"/>
-      <c r="K198" s="45"/>
+      <c r="K198" s="44"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="9"/>
@@ -8675,7 +9893,7 @@
       <c r="H199" s="30"/>
       <c r="I199" s="11"/>
       <c r="J199" s="11"/>
-      <c r="K199" s="44"/>
+      <c r="K199" s="52"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="9"/>
@@ -8705,16 +9923,16 @@
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="9"/>
-      <c r="B202" s="10"/>
-      <c r="C202" s="10"/>
-      <c r="D202" s="8"/>
-      <c r="E202" s="8"/>
-      <c r="F202" s="27"/>
-      <c r="G202" s="30"/>
-      <c r="H202" s="30"/>
+      <c r="B202" s="13"/>
+      <c r="C202" s="13"/>
+      <c r="D202" s="14"/>
+      <c r="E202" s="14"/>
+      <c r="F202" s="28"/>
+      <c r="G202" s="31"/>
+      <c r="H202" s="31"/>
       <c r="I202" s="11"/>
       <c r="J202" s="11"/>
-      <c r="K202" s="44"/>
+      <c r="K202" s="45"/>
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="9"/>
@@ -8753,20 +9971,20 @@
       <c r="H205" s="30"/>
       <c r="I205" s="11"/>
       <c r="J205" s="11"/>
-      <c r="K205" s="46"/>
+      <c r="K205" s="44"/>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="9"/>
-      <c r="B206" s="13"/>
-      <c r="C206" s="13"/>
-      <c r="D206" s="14"/>
-      <c r="E206" s="14"/>
-      <c r="F206" s="28"/>
-      <c r="G206" s="31"/>
-      <c r="H206" s="31"/>
+      <c r="B206" s="10"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="8"/>
+      <c r="E206" s="8"/>
+      <c r="F206" s="27"/>
+      <c r="G206" s="30"/>
+      <c r="H206" s="30"/>
       <c r="I206" s="11"/>
       <c r="J206" s="11"/>
-      <c r="K206" s="45"/>
+      <c r="K206" s="44"/>
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="9"/>
@@ -8805,20 +10023,20 @@
       <c r="H209" s="30"/>
       <c r="I209" s="11"/>
       <c r="J209" s="11"/>
-      <c r="K209" s="44"/>
+      <c r="K209" s="46"/>
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="9"/>
-      <c r="B210" s="10"/>
-      <c r="C210" s="10"/>
-      <c r="D210" s="8"/>
-      <c r="E210" s="8"/>
-      <c r="F210" s="27"/>
-      <c r="G210" s="30"/>
-      <c r="H210" s="30"/>
+      <c r="B210" s="13"/>
+      <c r="C210" s="13"/>
+      <c r="D210" s="14"/>
+      <c r="E210" s="14"/>
+      <c r="F210" s="28"/>
+      <c r="G210" s="31"/>
+      <c r="H210" s="31"/>
       <c r="I210" s="11"/>
       <c r="J210" s="11"/>
-      <c r="K210" s="44"/>
+      <c r="K210" s="45"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="9"/>
@@ -8887,10 +10105,10 @@
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="9"/>
-      <c r="B216" s="13"/>
-      <c r="C216" s="13"/>
-      <c r="D216" s="14"/>
-      <c r="E216" s="14"/>
+      <c r="B216" s="10"/>
+      <c r="C216" s="10"/>
+      <c r="D216" s="8"/>
+      <c r="E216" s="8"/>
       <c r="F216" s="27"/>
       <c r="G216" s="30"/>
       <c r="H216" s="30"/>
@@ -8943,12 +10161,12 @@
       <c r="C220" s="13"/>
       <c r="D220" s="14"/>
       <c r="E220" s="14"/>
-      <c r="F220" s="28"/>
-      <c r="G220" s="31"/>
-      <c r="H220" s="31"/>
+      <c r="F220" s="27"/>
+      <c r="G220" s="30"/>
+      <c r="H220" s="30"/>
       <c r="I220" s="11"/>
       <c r="J220" s="11"/>
-      <c r="K220" s="45"/>
+      <c r="K220" s="44"/>
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="9"/>
@@ -8964,17 +10182,17 @@
       <c r="K221" s="44"/>
     </row>
     <row r="222" spans="1:11">
-      <c r="A222" s="23"/>
-      <c r="B222" s="24"/>
-      <c r="C222" s="24"/>
-      <c r="D222" s="33"/>
-      <c r="E222" s="33"/>
+      <c r="A222" s="9"/>
+      <c r="B222" s="10"/>
+      <c r="C222" s="10"/>
+      <c r="D222" s="8"/>
+      <c r="E222" s="8"/>
       <c r="F222" s="27"/>
       <c r="G222" s="30"/>
       <c r="H222" s="30"/>
       <c r="I222" s="11"/>
       <c r="J222" s="11"/>
-      <c r="K222" s="47"/>
+      <c r="K222" s="44"/>
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="9"/>
@@ -8991,16 +10209,16 @@
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="9"/>
-      <c r="B224" s="10"/>
-      <c r="C224" s="10"/>
-      <c r="D224" s="8"/>
-      <c r="E224" s="8"/>
-      <c r="F224" s="27"/>
-      <c r="G224" s="30"/>
-      <c r="H224" s="30"/>
+      <c r="B224" s="13"/>
+      <c r="C224" s="13"/>
+      <c r="D224" s="14"/>
+      <c r="E224" s="14"/>
+      <c r="F224" s="28"/>
+      <c r="G224" s="31"/>
+      <c r="H224" s="31"/>
       <c r="I224" s="11"/>
       <c r="J224" s="11"/>
-      <c r="K224" s="44"/>
+      <c r="K224" s="45"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="9"/>
@@ -9016,43 +10234,43 @@
       <c r="K225" s="44"/>
     </row>
     <row r="226" spans="1:11">
-      <c r="A226" s="9"/>
-      <c r="B226" s="10"/>
-      <c r="C226" s="10"/>
-      <c r="D226" s="8"/>
-      <c r="E226" s="8"/>
+      <c r="A226" s="23"/>
+      <c r="B226" s="24"/>
+      <c r="C226" s="24"/>
+      <c r="D226" s="33"/>
+      <c r="E226" s="33"/>
       <c r="F226" s="27"/>
       <c r="G226" s="30"/>
       <c r="H226" s="30"/>
       <c r="I226" s="11"/>
       <c r="J226" s="11"/>
-      <c r="K226" s="44"/>
+      <c r="K226" s="47"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="9"/>
-      <c r="B227" s="13"/>
-      <c r="C227" s="13"/>
-      <c r="D227" s="14"/>
-      <c r="E227" s="14"/>
-      <c r="F227" s="28"/>
-      <c r="G227" s="31"/>
-      <c r="H227" s="31"/>
+      <c r="B227" s="10"/>
+      <c r="C227" s="10"/>
+      <c r="D227" s="8"/>
+      <c r="E227" s="8"/>
+      <c r="F227" s="27"/>
+      <c r="G227" s="30"/>
+      <c r="H227" s="30"/>
       <c r="I227" s="11"/>
       <c r="J227" s="11"/>
-      <c r="K227" s="45"/>
+      <c r="K227" s="44"/>
     </row>
     <row r="228" spans="1:11">
-      <c r="A228" s="23"/>
-      <c r="B228" s="24"/>
-      <c r="C228" s="24"/>
-      <c r="D228" s="33"/>
-      <c r="E228" s="33"/>
+      <c r="A228" s="9"/>
+      <c r="B228" s="10"/>
+      <c r="C228" s="10"/>
+      <c r="D228" s="8"/>
+      <c r="E228" s="8"/>
       <c r="F228" s="27"/>
       <c r="G228" s="30"/>
       <c r="H228" s="30"/>
       <c r="I228" s="11"/>
       <c r="J228" s="11"/>
-      <c r="K228" s="47"/>
+      <c r="K228" s="44"/>
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="9"/>
@@ -9065,7 +10283,7 @@
       <c r="H229" s="30"/>
       <c r="I229" s="11"/>
       <c r="J229" s="11"/>
-      <c r="K229" s="49"/>
+      <c r="K229" s="44"/>
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="9"/>
@@ -9082,29 +10300,29 @@
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="9"/>
-      <c r="B231" s="10"/>
-      <c r="C231" s="10"/>
-      <c r="D231" s="8"/>
-      <c r="E231" s="8"/>
-      <c r="F231" s="27"/>
-      <c r="G231" s="30"/>
-      <c r="H231" s="30"/>
+      <c r="B231" s="13"/>
+      <c r="C231" s="13"/>
+      <c r="D231" s="14"/>
+      <c r="E231" s="14"/>
+      <c r="F231" s="28"/>
+      <c r="G231" s="31"/>
+      <c r="H231" s="31"/>
       <c r="I231" s="11"/>
       <c r="J231" s="11"/>
-      <c r="K231" s="44"/>
+      <c r="K231" s="45"/>
     </row>
     <row r="232" spans="1:11">
-      <c r="A232" s="9"/>
-      <c r="B232" s="10"/>
-      <c r="C232" s="10"/>
-      <c r="D232" s="8"/>
-      <c r="E232" s="8"/>
+      <c r="A232" s="23"/>
+      <c r="B232" s="24"/>
+      <c r="C232" s="24"/>
+      <c r="D232" s="33"/>
+      <c r="E232" s="33"/>
       <c r="F232" s="27"/>
       <c r="G232" s="30"/>
       <c r="H232" s="30"/>
       <c r="I232" s="11"/>
       <c r="J232" s="11"/>
-      <c r="K232" s="44"/>
+      <c r="K232" s="47"/>
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="9"/>
@@ -9117,22 +10335,22 @@
       <c r="H233" s="30"/>
       <c r="I233" s="11"/>
       <c r="J233" s="11"/>
-      <c r="K233" s="44"/>
+      <c r="K233" s="49"/>
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="9"/>
-      <c r="B234" s="13"/>
-      <c r="C234" s="13"/>
-      <c r="D234" s="14"/>
-      <c r="E234" s="14"/>
-      <c r="F234" s="28"/>
-      <c r="G234" s="31"/>
-      <c r="H234" s="31"/>
+      <c r="B234" s="10"/>
+      <c r="C234" s="10"/>
+      <c r="D234" s="8"/>
+      <c r="E234" s="8"/>
+      <c r="F234" s="27"/>
+      <c r="G234" s="30"/>
+      <c r="H234" s="30"/>
       <c r="I234" s="11"/>
       <c r="J234" s="11"/>
-      <c r="K234" s="45"/>
-    </row>
-    <row r="235" spans="1:11" s="16" customFormat="1">
+      <c r="K234" s="44"/>
+    </row>
+    <row r="235" spans="1:11">
       <c r="A235" s="9"/>
       <c r="B235" s="10"/>
       <c r="C235" s="10"/>
@@ -9145,7 +10363,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="44"/>
     </row>
-    <row r="236" spans="1:11" s="16" customFormat="1">
+    <row r="236" spans="1:11">
       <c r="A236" s="9"/>
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
@@ -9158,7 +10376,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="44"/>
     </row>
-    <row r="237" spans="1:11" s="16" customFormat="1">
+    <row r="237" spans="1:11">
       <c r="A237" s="9"/>
       <c r="B237" s="10"/>
       <c r="C237" s="10"/>
@@ -9171,70 +10389,70 @@
       <c r="J237" s="11"/>
       <c r="K237" s="44"/>
     </row>
-    <row r="238" spans="1:11" s="16" customFormat="1">
+    <row r="238" spans="1:11">
       <c r="A238" s="9"/>
-      <c r="B238" s="10"/>
-      <c r="C238" s="10"/>
-      <c r="D238" s="8"/>
-      <c r="E238" s="8"/>
-      <c r="F238" s="27"/>
-      <c r="G238" s="30"/>
-      <c r="H238" s="30"/>
+      <c r="B238" s="13"/>
+      <c r="C238" s="13"/>
+      <c r="D238" s="14"/>
+      <c r="E238" s="14"/>
+      <c r="F238" s="28"/>
+      <c r="G238" s="31"/>
+      <c r="H238" s="31"/>
       <c r="I238" s="11"/>
       <c r="J238" s="11"/>
-      <c r="K238" s="44"/>
+      <c r="K238" s="45"/>
     </row>
     <row r="239" spans="1:11" s="16" customFormat="1">
       <c r="A239" s="9"/>
-      <c r="B239" s="13"/>
-      <c r="C239" s="13"/>
-      <c r="D239" s="14"/>
-      <c r="E239" s="14"/>
-      <c r="F239" s="28"/>
-      <c r="G239" s="31"/>
-      <c r="H239" s="31"/>
+      <c r="B239" s="10"/>
+      <c r="C239" s="10"/>
+      <c r="D239" s="8"/>
+      <c r="E239" s="8"/>
+      <c r="F239" s="27"/>
+      <c r="G239" s="30"/>
+      <c r="H239" s="30"/>
       <c r="I239" s="11"/>
       <c r="J239" s="11"/>
-      <c r="K239" s="45"/>
+      <c r="K239" s="44"/>
     </row>
     <row r="240" spans="1:11" s="16" customFormat="1">
       <c r="A240" s="9"/>
-      <c r="B240" s="13"/>
-      <c r="C240" s="13"/>
-      <c r="D240" s="14"/>
-      <c r="E240" s="14"/>
-      <c r="F240" s="28"/>
-      <c r="G240" s="31"/>
-      <c r="H240" s="31"/>
+      <c r="B240" s="10"/>
+      <c r="C240" s="10"/>
+      <c r="D240" s="8"/>
+      <c r="E240" s="8"/>
+      <c r="F240" s="27"/>
+      <c r="G240" s="30"/>
+      <c r="H240" s="30"/>
       <c r="I240" s="11"/>
       <c r="J240" s="11"/>
-      <c r="K240" s="45"/>
+      <c r="K240" s="44"/>
     </row>
     <row r="241" spans="1:11" s="16" customFormat="1">
       <c r="A241" s="9"/>
-      <c r="B241" s="13"/>
-      <c r="C241" s="13"/>
-      <c r="D241" s="14"/>
-      <c r="E241" s="14"/>
-      <c r="F241" s="28"/>
-      <c r="G241" s="31"/>
-      <c r="H241" s="31"/>
+      <c r="B241" s="10"/>
+      <c r="C241" s="10"/>
+      <c r="D241" s="8"/>
+      <c r="E241" s="8"/>
+      <c r="F241" s="27"/>
+      <c r="G241" s="30"/>
+      <c r="H241" s="30"/>
       <c r="I241" s="11"/>
       <c r="J241" s="11"/>
-      <c r="K241" s="45"/>
+      <c r="K241" s="44"/>
     </row>
     <row r="242" spans="1:11" s="16" customFormat="1">
       <c r="A242" s="9"/>
-      <c r="B242" s="13"/>
-      <c r="C242" s="13"/>
-      <c r="D242" s="14"/>
-      <c r="E242" s="14"/>
-      <c r="F242" s="28"/>
-      <c r="G242" s="31"/>
-      <c r="H242" s="31"/>
+      <c r="B242" s="10"/>
+      <c r="C242" s="10"/>
+      <c r="D242" s="8"/>
+      <c r="E242" s="8"/>
+      <c r="F242" s="27"/>
+      <c r="G242" s="30"/>
+      <c r="H242" s="30"/>
       <c r="I242" s="11"/>
       <c r="J242" s="11"/>
-      <c r="K242" s="45"/>
+      <c r="K242" s="44"/>
     </row>
     <row r="243" spans="1:11" s="16" customFormat="1">
       <c r="A243" s="9"/>
@@ -9264,16 +10482,16 @@
     </row>
     <row r="245" spans="1:11" s="16" customFormat="1">
       <c r="A245" s="9"/>
-      <c r="B245" s="10"/>
-      <c r="C245" s="10"/>
-      <c r="D245" s="8"/>
-      <c r="E245" s="8"/>
-      <c r="F245" s="27"/>
-      <c r="G245" s="30"/>
-      <c r="H245" s="30"/>
+      <c r="B245" s="13"/>
+      <c r="C245" s="13"/>
+      <c r="D245" s="14"/>
+      <c r="E245" s="14"/>
+      <c r="F245" s="28"/>
+      <c r="G245" s="31"/>
+      <c r="H245" s="31"/>
       <c r="I245" s="11"/>
       <c r="J245" s="11"/>
-      <c r="K245" s="44"/>
+      <c r="K245" s="45"/>
     </row>
     <row r="246" spans="1:11" s="16" customFormat="1">
       <c r="A246" s="9"/>
@@ -9288,7 +10506,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="45"/>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" s="16" customFormat="1">
       <c r="A247" s="9"/>
       <c r="B247" s="13"/>
       <c r="C247" s="13"/>
@@ -9301,7 +10519,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="45"/>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" s="16" customFormat="1">
       <c r="A248" s="9"/>
       <c r="B248" s="13"/>
       <c r="C248" s="13"/>
@@ -9314,38 +10532,38 @@
       <c r="J248" s="11"/>
       <c r="K248" s="45"/>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" s="16" customFormat="1">
       <c r="A249" s="9"/>
-      <c r="B249" s="13"/>
-      <c r="C249" s="13"/>
-      <c r="D249" s="14"/>
-      <c r="E249" s="14"/>
-      <c r="F249" s="28"/>
-      <c r="G249" s="31"/>
-      <c r="H249" s="31"/>
+      <c r="B249" s="10"/>
+      <c r="C249" s="10"/>
+      <c r="D249" s="8"/>
+      <c r="E249" s="8"/>
+      <c r="F249" s="27"/>
+      <c r="G249" s="30"/>
+      <c r="H249" s="30"/>
       <c r="I249" s="11"/>
       <c r="J249" s="11"/>
-      <c r="K249" s="45"/>
-    </row>
-    <row r="250" spans="1:11">
+      <c r="K249" s="44"/>
+    </row>
+    <row r="250" spans="1:11" s="16" customFormat="1">
       <c r="A250" s="9"/>
-      <c r="B250" s="10"/>
-      <c r="C250" s="10"/>
-      <c r="D250" s="8"/>
-      <c r="E250" s="8"/>
-      <c r="F250" s="27"/>
-      <c r="G250" s="30"/>
-      <c r="H250" s="30"/>
+      <c r="B250" s="13"/>
+      <c r="C250" s="13"/>
+      <c r="D250" s="14"/>
+      <c r="E250" s="14"/>
+      <c r="F250" s="28"/>
+      <c r="G250" s="31"/>
+      <c r="H250" s="31"/>
       <c r="I250" s="11"/>
       <c r="J250" s="11"/>
-      <c r="K250" s="44"/>
+      <c r="K250" s="45"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="9"/>
-      <c r="B251" s="26"/>
-      <c r="C251" s="26"/>
-      <c r="D251" s="36"/>
-      <c r="E251" s="36"/>
+      <c r="B251" s="13"/>
+      <c r="C251" s="13"/>
+      <c r="D251" s="14"/>
+      <c r="E251" s="14"/>
       <c r="F251" s="28"/>
       <c r="G251" s="31"/>
       <c r="H251" s="31"/>
@@ -9355,29 +10573,29 @@
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="9"/>
-      <c r="B252" s="10"/>
-      <c r="C252" s="10"/>
-      <c r="D252" s="8"/>
-      <c r="E252" s="8"/>
-      <c r="F252" s="27"/>
-      <c r="G252" s="30"/>
-      <c r="H252" s="30"/>
+      <c r="B252" s="13"/>
+      <c r="C252" s="13"/>
+      <c r="D252" s="14"/>
+      <c r="E252" s="14"/>
+      <c r="F252" s="28"/>
+      <c r="G252" s="31"/>
+      <c r="H252" s="31"/>
       <c r="I252" s="11"/>
       <c r="J252" s="11"/>
-      <c r="K252" s="44"/>
+      <c r="K252" s="45"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="9"/>
-      <c r="B253" s="10"/>
-      <c r="C253" s="10"/>
-      <c r="D253" s="8"/>
-      <c r="E253" s="8"/>
-      <c r="F253" s="27"/>
-      <c r="G253" s="30"/>
-      <c r="H253" s="30"/>
+      <c r="B253" s="13"/>
+      <c r="C253" s="13"/>
+      <c r="D253" s="14"/>
+      <c r="E253" s="14"/>
+      <c r="F253" s="28"/>
+      <c r="G253" s="31"/>
+      <c r="H253" s="31"/>
       <c r="I253" s="11"/>
       <c r="J253" s="11"/>
-      <c r="K253" s="44"/>
+      <c r="K253" s="45"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="9"/>
@@ -9394,23 +10612,23 @@
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="9"/>
-      <c r="B255" s="15"/>
-      <c r="C255" s="15"/>
-      <c r="D255" s="37"/>
-      <c r="E255" s="37"/>
-      <c r="F255" s="27"/>
-      <c r="G255" s="30"/>
-      <c r="H255" s="30"/>
+      <c r="B255" s="26"/>
+      <c r="C255" s="26"/>
+      <c r="D255" s="36"/>
+      <c r="E255" s="36"/>
+      <c r="F255" s="28"/>
+      <c r="G255" s="31"/>
+      <c r="H255" s="31"/>
       <c r="I255" s="11"/>
       <c r="J255" s="11"/>
-      <c r="K255" s="44"/>
+      <c r="K255" s="45"/>
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="9"/>
-      <c r="B256" s="15"/>
-      <c r="C256" s="15"/>
-      <c r="D256" s="37"/>
-      <c r="E256" s="37"/>
+      <c r="B256" s="10"/>
+      <c r="C256" s="10"/>
+      <c r="D256" s="8"/>
+      <c r="E256" s="8"/>
       <c r="F256" s="27"/>
       <c r="G256" s="30"/>
       <c r="H256" s="30"/>
@@ -9437,35 +10655,35 @@
       <c r="C258" s="10"/>
       <c r="D258" s="8"/>
       <c r="E258" s="8"/>
-      <c r="F258" s="28"/>
-      <c r="G258" s="31"/>
-      <c r="H258" s="31"/>
+      <c r="F258" s="27"/>
+      <c r="G258" s="30"/>
+      <c r="H258" s="30"/>
       <c r="I258" s="11"/>
       <c r="J258" s="11"/>
       <c r="K258" s="44"/>
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="9"/>
-      <c r="B259" s="10"/>
-      <c r="C259" s="10"/>
-      <c r="D259" s="8"/>
-      <c r="E259" s="8"/>
-      <c r="F259" s="28"/>
-      <c r="G259" s="31"/>
-      <c r="H259" s="31"/>
+      <c r="B259" s="15"/>
+      <c r="C259" s="15"/>
+      <c r="D259" s="37"/>
+      <c r="E259" s="37"/>
+      <c r="F259" s="27"/>
+      <c r="G259" s="30"/>
+      <c r="H259" s="30"/>
       <c r="I259" s="11"/>
       <c r="J259" s="11"/>
       <c r="K259" s="44"/>
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="9"/>
-      <c r="B260" s="10"/>
-      <c r="C260" s="10"/>
-      <c r="D260" s="8"/>
-      <c r="E260" s="8"/>
-      <c r="F260" s="28"/>
-      <c r="G260" s="31"/>
-      <c r="H260" s="31"/>
+      <c r="B260" s="15"/>
+      <c r="C260" s="15"/>
+      <c r="D260" s="37"/>
+      <c r="E260" s="37"/>
+      <c r="F260" s="27"/>
+      <c r="G260" s="30"/>
+      <c r="H260" s="30"/>
       <c r="I260" s="11"/>
       <c r="J260" s="11"/>
       <c r="K260" s="44"/>
@@ -9476,9 +10694,9 @@
       <c r="C261" s="10"/>
       <c r="D261" s="8"/>
       <c r="E261" s="8"/>
-      <c r="F261" s="28"/>
-      <c r="G261" s="31"/>
-      <c r="H261" s="31"/>
+      <c r="F261" s="27"/>
+      <c r="G261" s="30"/>
+      <c r="H261" s="30"/>
       <c r="I261" s="11"/>
       <c r="J261" s="11"/>
       <c r="K261" s="44"/>
@@ -10056,21 +11274,73 @@
       <c r="K305" s="44"/>
     </row>
     <row r="306" spans="1:11">
-      <c r="A306" s="17"/>
-      <c r="B306" s="17"/>
-      <c r="C306" s="17"/>
-      <c r="D306" s="18"/>
-      <c r="E306" s="18"/>
-      <c r="F306" s="29"/>
-      <c r="G306" s="32"/>
-      <c r="H306" s="54"/>
-      <c r="I306" s="19"/>
-      <c r="J306" s="19"/>
-      <c r="K306" s="53"/>
+      <c r="A306" s="9"/>
+      <c r="B306" s="10"/>
+      <c r="C306" s="10"/>
+      <c r="D306" s="8"/>
+      <c r="E306" s="8"/>
+      <c r="F306" s="28"/>
+      <c r="G306" s="31"/>
+      <c r="H306" s="31"/>
+      <c r="I306" s="11"/>
+      <c r="J306" s="11"/>
+      <c r="K306" s="44"/>
+    </row>
+    <row r="307" spans="1:11">
+      <c r="A307" s="9"/>
+      <c r="B307" s="10"/>
+      <c r="C307" s="10"/>
+      <c r="D307" s="8"/>
+      <c r="E307" s="8"/>
+      <c r="F307" s="28"/>
+      <c r="G307" s="31"/>
+      <c r="H307" s="31"/>
+      <c r="I307" s="11"/>
+      <c r="J307" s="11"/>
+      <c r="K307" s="44"/>
+    </row>
+    <row r="308" spans="1:11">
+      <c r="A308" s="9"/>
+      <c r="B308" s="10"/>
+      <c r="C308" s="10"/>
+      <c r="D308" s="8"/>
+      <c r="E308" s="8"/>
+      <c r="F308" s="28"/>
+      <c r="G308" s="31"/>
+      <c r="H308" s="31"/>
+      <c r="I308" s="11"/>
+      <c r="J308" s="11"/>
+      <c r="K308" s="44"/>
+    </row>
+    <row r="309" spans="1:11">
+      <c r="A309" s="9"/>
+      <c r="B309" s="10"/>
+      <c r="C309" s="10"/>
+      <c r="D309" s="8"/>
+      <c r="E309" s="8"/>
+      <c r="F309" s="28"/>
+      <c r="G309" s="31"/>
+      <c r="H309" s="31"/>
+      <c r="I309" s="11"/>
+      <c r="J309" s="11"/>
+      <c r="K309" s="44"/>
+    </row>
+    <row r="310" spans="1:11">
+      <c r="A310" s="17"/>
+      <c r="B310" s="17"/>
+      <c r="C310" s="17"/>
+      <c r="D310" s="18"/>
+      <c r="E310" s="18"/>
+      <c r="F310" s="29"/>
+      <c r="G310" s="32"/>
+      <c r="H310" s="54"/>
+      <c r="I310" s="19"/>
+      <c r="J310" s="19"/>
+      <c r="K310" s="53"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" sort="0" autoFilter="0"/>
-  <autoFilter ref="A3:K64">
+  <autoFilter ref="A3:K68">
     <sortState ref="A4:K58">
       <sortCondition ref="G3:G58"/>
     </sortState>
@@ -10079,158 +11349,339 @@
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I6:I306">
-    <cfRule type="containsText" dxfId="152" priority="83" operator="containsText" text="PITCH">
+  <conditionalFormatting sqref="I6:I13 I15 I17:I20 I22:I310">
+    <cfRule type="containsText" dxfId="194" priority="160" operator="containsText" text="PITCH">
       <formula>NOT(ISERROR(SEARCH("PITCH",I6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="84" operator="containsText" text="COMPLETE">
+    <cfRule type="containsText" dxfId="193" priority="161" operator="containsText" text="COMPLETE">
       <formula>NOT(ISERROR(SEARCH("COMPLETE",I6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="85" operator="containsText" text="ON TRACK">
+    <cfRule type="containsText" dxfId="192" priority="162" operator="containsText" text="ON TRACK">
       <formula>NOT(ISERROR(SEARCH("ON TRACK",I6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="86" operator="containsText" text="ATTENTION">
+    <cfRule type="containsText" dxfId="191" priority="163" operator="containsText" text="ATTENTION">
       <formula>NOT(ISERROR(SEARCH("ATTENTION",I6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="87" operator="containsText" text="OFF TRACK">
+    <cfRule type="containsText" dxfId="190" priority="164" operator="containsText" text="OFF TRACK">
       <formula>NOT(ISERROR(SEARCH("OFF TRACK",I6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A15 A18:A306">
-    <cfRule type="cellIs" dxfId="147" priority="380" operator="equal">
+  <conditionalFormatting sqref="A4:A13 A22:A310 A19 A15">
+    <cfRule type="cellIs" dxfId="189" priority="457" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="458" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="459" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J15 J18:J306">
-    <cfRule type="containsText" dxfId="144" priority="42" operator="containsText" text="SUBMITTED">
+  <conditionalFormatting sqref="J6:J13 J22:J310 J19 J15">
+    <cfRule type="containsText" dxfId="186" priority="119" operator="containsText" text="SUBMITTED">
       <formula>NOT(ISERROR(SEARCH("SUBMITTED",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="43" operator="containsText" text="APPROVED">
+    <cfRule type="containsText" dxfId="185" priority="120" operator="containsText" text="APPROVED">
       <formula>NOT(ISERROR(SEARCH("APPROVED",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="44" operator="containsText" text="HOLDING">
+    <cfRule type="containsText" dxfId="184" priority="121" operator="containsText" text="HOLDING">
       <formula>NOT(ISERROR(SEARCH("HOLDING",J6)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="141" priority="45" operator="beginsWith" text="DECLINED">
+    <cfRule type="beginsWith" dxfId="183" priority="122" operator="beginsWith" text="DECLINED">
       <formula>LEFT(J6,LEN("DECLINED"))="DECLINED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I5">
-    <cfRule type="containsText" dxfId="140" priority="36" operator="containsText" text="PITCH">
+    <cfRule type="containsText" dxfId="182" priority="113" operator="containsText" text="PITCH">
       <formula>NOT(ISERROR(SEARCH("PITCH",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="37" operator="containsText" text="COMPLETE">
+    <cfRule type="containsText" dxfId="181" priority="114" operator="containsText" text="COMPLETE">
       <formula>NOT(ISERROR(SEARCH("COMPLETE",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="39" operator="containsText" text="ATTENTION">
+    <cfRule type="containsText" dxfId="180" priority="116" operator="containsText" text="ATTENTION">
       <formula>NOT(ISERROR(SEARCH("ATTENTION",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="40" operator="containsText" text="OFF TRACK">
+    <cfRule type="containsText" dxfId="179" priority="117" operator="containsText" text="OFF TRACK">
       <formula>NOT(ISERROR(SEARCH("OFF TRACK",I4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J5">
-    <cfRule type="containsText" dxfId="136" priority="32" operator="containsText" text="SUBMITTED">
+    <cfRule type="containsText" dxfId="178" priority="109" operator="containsText" text="SUBMITTED">
       <formula>NOT(ISERROR(SEARCH("SUBMITTED",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="33" operator="containsText" text="APPROVED">
+    <cfRule type="containsText" dxfId="177" priority="110" operator="containsText" text="APPROVED">
       <formula>NOT(ISERROR(SEARCH("APPROVED",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="34" operator="containsText" text="HOLDING">
+    <cfRule type="containsText" dxfId="176" priority="111" operator="containsText" text="HOLDING">
       <formula>NOT(ISERROR(SEARCH("HOLDING",J4)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="133" priority="35" operator="beginsWith" text="DECLINED">
+    <cfRule type="beginsWith" dxfId="175" priority="112" operator="beginsWith" text="DECLINED">
       <formula>LEFT(J4,LEN("DECLINED"))="DECLINED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I2 I4:I1048576">
-    <cfRule type="containsText" dxfId="132" priority="31" operator="containsText" text="Planned">
+  <conditionalFormatting sqref="I1:I2 I4:I13 I15 I17:I20 I22:I1048576">
+    <cfRule type="containsText" dxfId="174" priority="108" operator="containsText" text="Planned">
       <formula>NOT(ISERROR(SEARCH("Planned",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="131" priority="30" operator="containsText" text="Planned">
+    <cfRule type="containsText" dxfId="173" priority="107" operator="containsText" text="Planned">
       <formula>NOT(ISERROR(SEARCH("Planned",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="130" priority="29" operator="containsText" text="IN PROGRESS">
+  <conditionalFormatting sqref="I1:I13 I15 I17:I20 I22:I1048576">
+    <cfRule type="containsText" dxfId="172" priority="106" operator="containsText" text="IN PROGRESS">
       <formula>NOT(ISERROR(SEARCH("IN PROGRESS",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="124" priority="26" operator="equal">
+  <conditionalFormatting sqref="A20">
+    <cfRule type="cellIs" dxfId="171" priority="89" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="90" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="91" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="containsText" dxfId="168" priority="80" operator="containsText" text="SUBMITTED">
+      <formula>NOT(ISERROR(SEARCH("SUBMITTED",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="167" priority="81" operator="containsText" text="APPROVED">
+      <formula>NOT(ISERROR(SEARCH("APPROVED",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="166" priority="82" operator="containsText" text="HOLDING">
+      <formula>NOT(ISERROR(SEARCH("HOLDING",J20)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="165" priority="83" operator="beginsWith" text="DECLINED">
+      <formula>LEFT(J20,LEN("DECLINED"))="DECLINED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="cellIs" dxfId="164" priority="75" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="76" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="77" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsText" dxfId="161" priority="66" operator="containsText" text="SUBMITTED">
+      <formula>NOT(ISERROR(SEARCH("SUBMITTED",J18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="160" priority="67" operator="containsText" text="APPROVED">
+      <formula>NOT(ISERROR(SEARCH("APPROVED",J18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="159" priority="68" operator="containsText" text="HOLDING">
+      <formula>NOT(ISERROR(SEARCH("HOLDING",J18)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="158" priority="69" operator="beginsWith" text="DECLINED">
+      <formula>LEFT(J18,LEN("DECLINED"))="DECLINED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="cellIs" dxfId="157" priority="61" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="62" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="155" priority="63" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="containsText" dxfId="154" priority="52" operator="containsText" text="SUBMITTED">
+      <formula>NOT(ISERROR(SEARCH("SUBMITTED",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="53" operator="containsText" text="APPROVED">
+      <formula>NOT(ISERROR(SEARCH("APPROVED",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="152" priority="54" operator="containsText" text="HOLDING">
+      <formula>NOT(ISERROR(SEARCH("HOLDING",J17)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="151" priority="55" operator="beginsWith" text="DECLINED">
+      <formula>LEFT(J17,LEN("DECLINED"))="DECLINED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="cellIs" dxfId="150" priority="40" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="41" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="42" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="containsText" dxfId="147" priority="36" operator="containsText" text="SUBMITTED">
+      <formula>NOT(ISERROR(SEARCH("SUBMITTED",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="146" priority="37" operator="containsText" text="APPROVED">
+      <formula>NOT(ISERROR(SEARCH("APPROVED",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="38" operator="containsText" text="HOLDING">
+      <formula>NOT(ISERROR(SEARCH("HOLDING",J14)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="144" priority="39" operator="beginsWith" text="DECLINED">
+      <formula>LEFT(J14,LEN("DECLINED"))="DECLINED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="containsText" dxfId="143" priority="31" operator="containsText" text="PITCH">
+      <formula>NOT(ISERROR(SEARCH("PITCH",I14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="32" operator="containsText" text="COMPLETE">
+      <formula>NOT(ISERROR(SEARCH("COMPLETE",I14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="33" operator="containsText" text="ON TRACK">
+      <formula>NOT(ISERROR(SEARCH("ON TRACK",I14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="140" priority="34" operator="containsText" text="ATTENTION">
+      <formula>NOT(ISERROR(SEARCH("ATTENTION",I14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="139" priority="35" operator="containsText" text="OFF TRACK">
+      <formula>NOT(ISERROR(SEARCH("OFF TRACK",I14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="containsText" dxfId="138" priority="30" operator="containsText" text="Planned">
+      <formula>NOT(ISERROR(SEARCH("Planned",I14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="containsText" dxfId="137" priority="29" operator="containsText" text="IN PROGRESS">
+      <formula>NOT(ISERROR(SEARCH("IN PROGRESS",I14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="cellIs" dxfId="136" priority="26" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="27" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="121" priority="17" operator="containsText" text="SUBMITTED">
+    <cfRule type="containsText" dxfId="133" priority="22" operator="containsText" text="SUBMITTED">
       <formula>NOT(ISERROR(SEARCH("SUBMITTED",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="18" operator="containsText" text="APPROVED">
+    <cfRule type="containsText" dxfId="132" priority="23" operator="containsText" text="APPROVED">
       <formula>NOT(ISERROR(SEARCH("APPROVED",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="19" operator="containsText" text="HOLDING">
+    <cfRule type="containsText" dxfId="131" priority="24" operator="containsText" text="HOLDING">
       <formula>NOT(ISERROR(SEARCH("HOLDING",J16)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="118" priority="20" operator="beginsWith" text="DECLINED">
+    <cfRule type="beginsWith" dxfId="130" priority="25" operator="beginsWith" text="DECLINED">
       <formula>LEFT(J16,LEN("DECLINED"))="DECLINED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="110" priority="12" operator="equal">
+  <conditionalFormatting sqref="I16">
+    <cfRule type="containsText" dxfId="129" priority="17" operator="containsText" text="PITCH">
+      <formula>NOT(ISERROR(SEARCH("PITCH",I16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="128" priority="18" operator="containsText" text="COMPLETE">
+      <formula>NOT(ISERROR(SEARCH("COMPLETE",I16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="19" operator="containsText" text="ON TRACK">
+      <formula>NOT(ISERROR(SEARCH("ON TRACK",I16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="20" operator="containsText" text="ATTENTION">
+      <formula>NOT(ISERROR(SEARCH("ATTENTION",I16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="125" priority="21" operator="containsText" text="OFF TRACK">
+      <formula>NOT(ISERROR(SEARCH("OFF TRACK",I16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="containsText" dxfId="124" priority="16" operator="containsText" text="Planned">
+      <formula>NOT(ISERROR(SEARCH("Planned",I16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="containsText" dxfId="123" priority="15" operator="containsText" text="IN PROGRESS">
+      <formula>NOT(ISERROR(SEARCH("IN PROGRESS",I16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="containsText" dxfId="27" priority="10" operator="containsText" text="PITCH">
+      <formula>NOT(ISERROR(SEARCH("PITCH",I21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="COMPLETE">
+      <formula>NOT(ISERROR(SEARCH("COMPLETE",I21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="12" operator="containsText" text="ON TRACK">
+      <formula>NOT(ISERROR(SEARCH("ON TRACK",I21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="ATTENTION">
+      <formula>NOT(ISERROR(SEARCH("ATTENTION",I21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="OFF TRACK">
+      <formula>NOT(ISERROR(SEARCH("OFF TRACK",I21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="Planned">
+      <formula>NOT(ISERROR(SEARCH("Planned",I21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="IN PROGRESS">
+      <formula>NOT(ISERROR(SEARCH("IN PROGRESS",I21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="containsText" dxfId="107" priority="3" operator="containsText" text="SUBMITTED">
-      <formula>NOT(ISERROR(SEARCH("SUBMITTED",J17)))</formula>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="SUBMITTED">
+      <formula>NOT(ISERROR(SEARCH("SUBMITTED",J21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="4" operator="containsText" text="APPROVED">
-      <formula>NOT(ISERROR(SEARCH("APPROVED",J17)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="APPROVED">
+      <formula>NOT(ISERROR(SEARCH("APPROVED",J21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="5" operator="containsText" text="HOLDING">
-      <formula>NOT(ISERROR(SEARCH("HOLDING",J17)))</formula>
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="HOLDING">
+      <formula>NOT(ISERROR(SEARCH("HOLDING",J21)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="104" priority="6" operator="beginsWith" text="DECLINED">
-      <formula>LEFT(J17,LEN("DECLINED"))="DECLINED"</formula>
+    <cfRule type="beginsWith" dxfId="4" priority="4" operator="beginsWith" text="DECLINED">
+      <formula>LEFT(J21,LEN("DECLINED"))="DECLINED"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I58 I66 I68:I305 I4:I55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I62 I70 I72:I309 I4:I59">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I56:I57 I59:I65 I67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I60:I61 I63:I69 I71">
       <formula1>boolean</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D306">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D310">
       <formula1>platform</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E306">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E310">
       <formula1>os</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J306">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J310">
       <formula1>approval</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A306">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A310">
       <formula1>priority</formula1>
     </dataValidation>
   </dataValidations>
@@ -10274,34 +11725,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="43" customFormat="1" ht="72" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="104"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="111"/>
     </row>
     <row r="2" spans="1:11" s="42" customFormat="1" ht="18">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="101"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
     </row>
     <row r="3" spans="1:11" s="41" customFormat="1" ht="25" customHeight="1">
       <c r="A3" s="38" t="s">
@@ -15258,213 +16709,213 @@
     <mergeCell ref="A2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="I66:I305 I6:I55">
-    <cfRule type="containsText" dxfId="101" priority="77" operator="containsText" text="PITCH">
+    <cfRule type="containsText" dxfId="122" priority="77" operator="containsText" text="PITCH">
       <formula>NOT(ISERROR(SEARCH("PITCH",I6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="78" operator="containsText" text="COMPLETE">
+    <cfRule type="containsText" dxfId="121" priority="78" operator="containsText" text="COMPLETE">
       <formula>NOT(ISERROR(SEARCH("COMPLETE",I6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="80" operator="containsText" text="ATTENTION">
+    <cfRule type="containsText" dxfId="120" priority="80" operator="containsText" text="ATTENTION">
       <formula>NOT(ISERROR(SEARCH("ATTENTION",I6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="81" operator="containsText" text="OFF TRACK">
+    <cfRule type="containsText" dxfId="119" priority="81" operator="containsText" text="OFF TRACK">
       <formula>NOT(ISERROR(SEARCH("OFF TRACK",I6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A305 A6:A55">
-    <cfRule type="cellIs" dxfId="97" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="82" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="83" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="84" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66:F305">
-    <cfRule type="cellIs" dxfId="94" priority="76" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="76" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:J16 J66:J305 J21:J55">
-    <cfRule type="containsText" dxfId="93" priority="72" operator="containsText" text="SUBMITTED">
+    <cfRule type="containsText" dxfId="114" priority="72" operator="containsText" text="SUBMITTED">
       <formula>NOT(ISERROR(SEARCH("SUBMITTED",J14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="73" operator="containsText" text="APPROVED">
+    <cfRule type="containsText" dxfId="113" priority="73" operator="containsText" text="APPROVED">
       <formula>NOT(ISERROR(SEARCH("APPROVED",J14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="74" operator="containsText" text="HOLDING">
+    <cfRule type="containsText" dxfId="112" priority="74" operator="containsText" text="HOLDING">
       <formula>NOT(ISERROR(SEARCH("HOLDING",J14)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="90" priority="75" operator="beginsWith" text="DECLINED">
+    <cfRule type="beginsWith" dxfId="111" priority="75" operator="beginsWith" text="DECLINED">
       <formula>LEFT(J14,LEN("DECLINED"))="DECLINED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J20">
-    <cfRule type="containsText" dxfId="89" priority="63" operator="containsText" text="SUBMITTED">
+    <cfRule type="containsText" dxfId="110" priority="63" operator="containsText" text="SUBMITTED">
       <formula>NOT(ISERROR(SEARCH("SUBMITTED",J17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="64" operator="containsText" text="APPROVED">
+    <cfRule type="containsText" dxfId="109" priority="64" operator="containsText" text="APPROVED">
       <formula>NOT(ISERROR(SEARCH("APPROVED",J17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="65" operator="containsText" text="HOLDING">
+    <cfRule type="containsText" dxfId="108" priority="65" operator="containsText" text="HOLDING">
       <formula>NOT(ISERROR(SEARCH("HOLDING",J17)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="86" priority="66" operator="beginsWith" text="DECLINED">
+    <cfRule type="beginsWith" dxfId="107" priority="66" operator="beginsWith" text="DECLINED">
       <formula>LEFT(J17,LEN("DECLINED"))="DECLINED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I3 I66:I1048576 I6:I55">
-    <cfRule type="containsText" dxfId="85" priority="62" operator="containsText" text="Planned">
+    <cfRule type="containsText" dxfId="106" priority="62" operator="containsText" text="Planned">
       <formula>NOT(ISERROR(SEARCH("Planned",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="84" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="59" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="60" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="61" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="81" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="46" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="47" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J13">
-    <cfRule type="containsText" dxfId="78" priority="32" operator="containsText" text="SUBMITTED">
+    <cfRule type="containsText" dxfId="99" priority="32" operator="containsText" text="SUBMITTED">
       <formula>NOT(ISERROR(SEARCH("SUBMITTED",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="33" operator="containsText" text="APPROVED">
+    <cfRule type="containsText" dxfId="98" priority="33" operator="containsText" text="APPROVED">
       <formula>NOT(ISERROR(SEARCH("APPROVED",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="34" operator="containsText" text="HOLDING">
+    <cfRule type="containsText" dxfId="97" priority="34" operator="containsText" text="HOLDING">
       <formula>NOT(ISERROR(SEARCH("HOLDING",J4)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="75" priority="35" operator="beginsWith" text="DECLINED">
+    <cfRule type="beginsWith" dxfId="96" priority="35" operator="beginsWith" text="DECLINED">
       <formula>LEFT(J4,LEN("DECLINED"))="DECLINED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I5">
-    <cfRule type="containsText" dxfId="74" priority="27" operator="containsText" text="PITCH">
+    <cfRule type="containsText" dxfId="95" priority="27" operator="containsText" text="PITCH">
       <formula>NOT(ISERROR(SEARCH("PITCH",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="28" operator="containsText" text="COMPLETE">
+    <cfRule type="containsText" dxfId="94" priority="28" operator="containsText" text="COMPLETE">
       <formula>NOT(ISERROR(SEARCH("COMPLETE",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="29" operator="containsText" text="ON TRACK">
+    <cfRule type="containsText" dxfId="93" priority="29" operator="containsText" text="ON TRACK">
       <formula>NOT(ISERROR(SEARCH("ON TRACK",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="30" operator="containsText" text="ATTENTION">
+    <cfRule type="containsText" dxfId="92" priority="30" operator="containsText" text="ATTENTION">
       <formula>NOT(ISERROR(SEARCH("ATTENTION",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="31" operator="containsText" text="OFF TRACK">
+    <cfRule type="containsText" dxfId="91" priority="31" operator="containsText" text="OFF TRACK">
       <formula>NOT(ISERROR(SEARCH("OFF TRACK",I4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I5">
-    <cfRule type="containsText" dxfId="69" priority="26" operator="containsText" text="Planned">
+    <cfRule type="containsText" dxfId="90" priority="26" operator="containsText" text="Planned">
       <formula>NOT(ISERROR(SEARCH("Planned",I4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56:I62">
-    <cfRule type="containsText" dxfId="68" priority="18" operator="containsText" text="PITCH">
+    <cfRule type="containsText" dxfId="89" priority="18" operator="containsText" text="PITCH">
       <formula>NOT(ISERROR(SEARCH("PITCH",I56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="19" operator="containsText" text="COMPLETE">
+    <cfRule type="containsText" dxfId="88" priority="19" operator="containsText" text="COMPLETE">
       <formula>NOT(ISERROR(SEARCH("COMPLETE",I56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="20" operator="containsText" text="ON TRACK">
+    <cfRule type="containsText" dxfId="87" priority="20" operator="containsText" text="ON TRACK">
       <formula>NOT(ISERROR(SEARCH("ON TRACK",I56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="21" operator="containsText" text="ATTENTION">
+    <cfRule type="containsText" dxfId="86" priority="21" operator="containsText" text="ATTENTION">
       <formula>NOT(ISERROR(SEARCH("ATTENTION",I56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="22" operator="containsText" text="OFF TRACK">
+    <cfRule type="containsText" dxfId="85" priority="22" operator="containsText" text="OFF TRACK">
       <formula>NOT(ISERROR(SEARCH("OFF TRACK",I56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:A62">
-    <cfRule type="cellIs" dxfId="63" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="23" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="24" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56:J62">
-    <cfRule type="containsText" dxfId="60" priority="13" operator="containsText" text="SUBMITTED">
+    <cfRule type="containsText" dxfId="81" priority="13" operator="containsText" text="SUBMITTED">
       <formula>NOT(ISERROR(SEARCH("SUBMITTED",J56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="14" operator="containsText" text="APPROVED">
+    <cfRule type="containsText" dxfId="80" priority="14" operator="containsText" text="APPROVED">
       <formula>NOT(ISERROR(SEARCH("APPROVED",J56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="15" operator="containsText" text="HOLDING">
+    <cfRule type="containsText" dxfId="79" priority="15" operator="containsText" text="HOLDING">
       <formula>NOT(ISERROR(SEARCH("HOLDING",J56)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="57" priority="16" operator="beginsWith" text="DECLINED">
+    <cfRule type="beginsWith" dxfId="78" priority="16" operator="beginsWith" text="DECLINED">
       <formula>LEFT(J56,LEN("DECLINED"))="DECLINED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56:I62">
-    <cfRule type="containsText" dxfId="56" priority="12" operator="containsText" text="Planned">
+    <cfRule type="containsText" dxfId="77" priority="12" operator="containsText" text="Planned">
       <formula>NOT(ISERROR(SEARCH("Planned",I56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:I65">
-    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="PITCH">
+    <cfRule type="containsText" dxfId="76" priority="7" operator="containsText" text="PITCH">
       <formula>NOT(ISERROR(SEARCH("PITCH",I63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="9" operator="containsText" text="ON TRACK">
+    <cfRule type="containsText" dxfId="75" priority="9" operator="containsText" text="ON TRACK">
       <formula>NOT(ISERROR(SEARCH("ON TRACK",I63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="10" operator="containsText" text="ATTENTION">
+    <cfRule type="containsText" dxfId="74" priority="10" operator="containsText" text="ATTENTION">
       <formula>NOT(ISERROR(SEARCH("ATTENTION",I63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="11" operator="containsText" text="OFF TRACK">
+    <cfRule type="containsText" dxfId="73" priority="11" operator="containsText" text="OFF TRACK">
       <formula>NOT(ISERROR(SEARCH("OFF TRACK",I63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J63:J65">
-    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="SUBMITTED">
+    <cfRule type="containsText" dxfId="72" priority="3" operator="containsText" text="SUBMITTED">
       <formula>NOT(ISERROR(SEARCH("SUBMITTED",J63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="APPROVED">
+    <cfRule type="containsText" dxfId="71" priority="4" operator="containsText" text="APPROVED">
       <formula>NOT(ISERROR(SEARCH("APPROVED",J63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="HOLDING">
+    <cfRule type="containsText" dxfId="70" priority="5" operator="containsText" text="HOLDING">
       <formula>NOT(ISERROR(SEARCH("HOLDING",J63)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="48" priority="6" operator="beginsWith" text="DECLINED">
+    <cfRule type="beginsWith" dxfId="69" priority="6" operator="beginsWith" text="DECLINED">
       <formula>LEFT(J63,LEN("DECLINED"))="DECLINED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:I65">
-    <cfRule type="containsText" dxfId="47" priority="2" operator="containsText" text="Planned">
+    <cfRule type="containsText" dxfId="68" priority="2" operator="containsText" text="Planned">
       <formula>NOT(ISERROR(SEARCH("Planned",I63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="COMPLETE">
+    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="COMPLETE">
       <formula>NOT(ISERROR(SEARCH("COMPLETE",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:K1048576">
-    <cfRule type="containsText" dxfId="45" priority="8" operator="containsText" text="IN PROGRESS">
+    <cfRule type="containsText" dxfId="66" priority="8" operator="containsText" text="IN PROGRESS">
       <formula>NOT(ISERROR(SEARCH("IN PROGRESS",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15524,36 +16975,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="43" customFormat="1" ht="47" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="104"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="111"/>
     </row>
     <row r="2" spans="1:12" s="42" customFormat="1" ht="18">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="106" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="101"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="108"/>
     </row>
     <row r="3" spans="1:12" s="41" customFormat="1" ht="32" customHeight="1">
       <c r="A3" s="38" t="s">
@@ -16487,47 +17938,47 @@
     <mergeCell ref="A2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:A36">
-    <cfRule type="cellIs" dxfId="44" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="41" priority="4" operator="containsText" text="ON HOLD">
+    <cfRule type="containsText" dxfId="62" priority="4" operator="containsText" text="ON HOLD">
       <formula>NOT(ISERROR(SEARCH("ON HOLD",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="5" operator="containsText" text="IN DESIGN">
+    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="IN DESIGN">
       <formula>NOT(ISERROR(SEARCH("IN DESIGN",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="6" operator="containsText" text="IN DISCUSSION">
+    <cfRule type="containsText" dxfId="60" priority="6" operator="containsText" text="IN DISCUSSION">
       <formula>NOT(ISERROR(SEARCH("IN DISCUSSION",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="7" operator="containsText" text="OFF TRACK">
+    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="OFF TRACK">
       <formula>NOT(ISERROR(SEARCH("OFF TRACK",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="8" operator="containsText" text="COMPLETE">
+    <cfRule type="containsText" dxfId="58" priority="8" operator="containsText" text="COMPLETE">
       <formula>NOT(ISERROR(SEARCH("COMPLETE",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="9" operator="containsText" text="ATTENTION">
+    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="ATTENTION">
       <formula>NOT(ISERROR(SEARCH("ATTENTION",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="10" operator="containsText" text="IN PROGRESS">
+    <cfRule type="containsText" dxfId="56" priority="10" operator="containsText" text="IN PROGRESS">
       <formula>NOT(ISERROR(SEARCH("IN PROGRESS",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16627,36 +18078,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="43" customFormat="1" ht="47" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="104"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="111"/>
     </row>
     <row r="2" spans="1:12" s="42" customFormat="1" ht="18">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="106" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="101"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="108"/>
     </row>
     <row r="3" spans="1:12" s="41" customFormat="1" ht="32" customHeight="1">
       <c r="A3" s="38" t="s">
@@ -17034,36 +18485,36 @@
     <mergeCell ref="A2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:A19">
-    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="19" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="20" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="ON HOLD">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="ON HOLD">
       <formula>NOT(ISERROR(SEARCH("ON HOLD",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="IN DESIGN">
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="IN DESIGN">
       <formula>NOT(ISERROR(SEARCH("IN DESIGN",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="IN DISCUSSION">
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="IN DISCUSSION">
       <formula>NOT(ISERROR(SEARCH("IN DISCUSSION",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="OFF TRACK">
+    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="OFF TRACK">
       <formula>NOT(ISERROR(SEARCH("OFF TRACK",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="COMPLETE">
+    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="COMPLETE">
       <formula>NOT(ISERROR(SEARCH("COMPLETE",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="ATTENTION">
+    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="ATTENTION">
       <formula>NOT(ISERROR(SEARCH("ATTENTION",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="IN PROGRESS">
+    <cfRule type="containsText" dxfId="41" priority="7" operator="containsText" text="IN PROGRESS">
       <formula>NOT(ISERROR(SEARCH("IN PROGRESS",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17152,7 +18603,7 @@
     <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.83203125" style="106" customWidth="1"/>
+    <col min="4" max="4" width="65.83203125" style="100" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.1640625" customWidth="1"/>
@@ -17160,28 +18611,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="43" customFormat="1" ht="47" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="104"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="111"/>
     </row>
     <row r="2" spans="1:8" s="42" customFormat="1" ht="18">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="106" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="101"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="108"/>
     </row>
     <row r="3" spans="1:8" s="41" customFormat="1" ht="32" customHeight="1">
       <c r="A3" s="39" t="s">
@@ -17193,7 +18644,7 @@
       <c r="C3" s="39" t="s">
         <v>284</v>
       </c>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="99" t="s">
         <v>282</v>
       </c>
       <c r="E3" s="40" t="s">
@@ -17213,10 +18664,10 @@
       <c r="B4" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="102" t="s">
         <v>292</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -17234,10 +18685,10 @@
       <c r="B5" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="102" t="s">
         <v>293</v>
       </c>
       <c r="E5" s="13" t="s">
@@ -17255,10 +18706,10 @@
       <c r="B6" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="108" t="s">
+      <c r="D6" s="102" t="s">
         <v>294</v>
       </c>
       <c r="E6" s="13" t="s">
@@ -17276,10 +18727,10 @@
       <c r="B7" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="108" t="s">
+      <c r="D7" s="102" t="s">
         <v>295</v>
       </c>
       <c r="E7" s="13" t="s">
@@ -17297,10 +18748,10 @@
       <c r="B8" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="108" t="s">
+      <c r="D8" s="102" t="s">
         <v>296</v>
       </c>
       <c r="E8" s="13" t="s">
@@ -17318,10 +18769,10 @@
       <c r="B9" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="108" t="s">
+      <c r="D9" s="102" t="s">
         <v>305</v>
       </c>
       <c r="E9" s="13" t="s">
@@ -17339,10 +18790,10 @@
       <c r="B10" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="108" t="s">
+      <c r="D10" s="102" t="s">
         <v>306</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -17360,10 +18811,10 @@
       <c r="B11" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="102" t="s">
         <v>307</v>
       </c>
       <c r="E11" s="13" t="s">
@@ -17381,10 +18832,10 @@
       <c r="B12" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="102" t="s">
         <v>297</v>
       </c>
       <c r="E12" s="13" t="s">
@@ -17402,10 +18853,10 @@
       <c r="B13" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="102" t="s">
         <v>298</v>
       </c>
       <c r="E13" s="13" t="s">
@@ -17423,10 +18874,10 @@
       <c r="B14" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="D14" s="102" t="s">
         <v>299</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -17444,10 +18895,10 @@
       <c r="B15" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="108" t="s">
+      <c r="D15" s="102" t="s">
         <v>300</v>
       </c>
       <c r="E15" s="13" t="s">
@@ -17465,10 +18916,10 @@
       <c r="B16" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="D16" s="102" t="s">
         <v>301</v>
       </c>
       <c r="E16" s="13" t="s">
@@ -17486,10 +18937,10 @@
       <c r="B17" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="D17" s="102" t="s">
         <v>302</v>
       </c>
       <c r="E17" s="13" t="s">
@@ -17507,10 +18958,10 @@
       <c r="B18" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C18" s="107" t="s">
+      <c r="C18" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="108" t="s">
+      <c r="D18" s="102" t="s">
         <v>308</v>
       </c>
       <c r="E18" s="13" t="s">
@@ -17528,10 +18979,10 @@
       <c r="B19" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="108" t="s">
+      <c r="D19" s="102" t="s">
         <v>309</v>
       </c>
       <c r="E19" s="13" t="s">
@@ -17549,10 +19000,10 @@
       <c r="B20" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C20" s="107" t="s">
+      <c r="C20" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="108" t="s">
+      <c r="D20" s="102" t="s">
         <v>312</v>
       </c>
       <c r="E20" s="13" t="s">
@@ -17570,10 +19021,10 @@
       <c r="B21" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C21" s="107" t="s">
+      <c r="C21" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="108" t="s">
+      <c r="D21" s="102" t="s">
         <v>310</v>
       </c>
       <c r="E21" s="13" t="s">
@@ -17591,10 +19042,10 @@
       <c r="B22" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C22" s="107" t="s">
+      <c r="C22" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="108" t="s">
+      <c r="D22" s="102" t="s">
         <v>311</v>
       </c>
       <c r="E22" s="13" t="s">
@@ -17612,10 +19063,10 @@
       <c r="B23" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C23" s="107" t="s">
+      <c r="C23" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="108" t="s">
+      <c r="D23" s="102" t="s">
         <v>314</v>
       </c>
       <c r="E23" s="13" t="s">
@@ -17624,7 +19075,7 @@
       <c r="F23" s="31">
         <v>41431</v>
       </c>
-      <c r="G23" s="109" t="s">
+      <c r="G23" s="103" t="s">
         <v>313</v>
       </c>
     </row>
@@ -17635,10 +19086,10 @@
       <c r="B24" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C24" s="107" t="s">
+      <c r="C24" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="108" t="s">
+      <c r="D24" s="102" t="s">
         <v>315</v>
       </c>
       <c r="E24" s="13" t="s">
@@ -17658,10 +19109,10 @@
       <c r="B25" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C25" s="107" t="s">
+      <c r="C25" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="108" t="s">
+      <c r="D25" s="102" t="s">
         <v>317</v>
       </c>
       <c r="E25" s="13" t="s">
@@ -17679,10 +19130,10 @@
       <c r="B26" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C26" s="107" t="s">
+      <c r="C26" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="108" t="s">
+      <c r="D26" s="102" t="s">
         <v>318</v>
       </c>
       <c r="E26" s="13" t="s">
@@ -17702,10 +19153,10 @@
       <c r="B27" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C27" s="107" t="s">
+      <c r="C27" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="108" t="s">
+      <c r="D27" s="102" t="s">
         <v>320</v>
       </c>
       <c r="E27" s="13" t="s">
@@ -17723,10 +19174,10 @@
       <c r="B28" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C28" s="107" t="s">
+      <c r="C28" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="108" t="s">
+      <c r="D28" s="102" t="s">
         <v>303</v>
       </c>
       <c r="E28" s="13" t="s">
@@ -17744,10 +19195,10 @@
       <c r="B29" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C29" s="107" t="s">
+      <c r="C29" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="108" t="s">
+      <c r="D29" s="102" t="s">
         <v>304</v>
       </c>
       <c r="E29" s="13" t="s">
@@ -17765,13 +19216,13 @@
     <mergeCell ref="A2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:B29">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18106,36 +19557,36 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="E6:E8">
-    <cfRule type="expression" dxfId="14" priority="358">
+    <cfRule type="expression" dxfId="35" priority="358">
       <formula>($G5=3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="359">
+    <cfRule type="expression" dxfId="34" priority="359">
       <formula>($G5=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="12" priority="364">
+    <cfRule type="expression" dxfId="33" priority="364">
       <formula>($G3=3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="365">
+    <cfRule type="expression" dxfId="32" priority="365">
       <formula>($G3=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="10" priority="366">
+    <cfRule type="expression" dxfId="31" priority="366">
       <formula>($G3=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="9" priority="367">
+    <cfRule type="expression" dxfId="30" priority="367">
       <formula>($G1=3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="8" priority="368">
+    <cfRule type="expression" dxfId="29" priority="368">
       <formula>($G4=3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="369">
+    <cfRule type="expression" dxfId="28" priority="369">
       <formula>($G4=1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/LEGO_Deliverables_Checklist.xlsx
+++ b/LEGO_Deliverables_Checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23206"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28100" yWindow="-4180" windowWidth="25600" windowHeight="15480"/>
+    <workbookView xWindow="12880" yWindow="0" windowWidth="12720" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="FishTank Deliverables" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="342">
   <si>
     <t>TBD</t>
   </si>
@@ -2199,6 +2199,21 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="224" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="1" xfId="224" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="1" xfId="224" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="10" borderId="1" xfId="224" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="1" xfId="224" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2216,21 +2231,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="1" xfId="224" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="1" xfId="224" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="35" fillId="10" borderId="1" xfId="224" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="1" xfId="224" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="297">
@@ -2532,303 +2532,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="279">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749992370372631"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749992370372631"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="181">
     <dxf>
       <fill>
         <patternFill>
@@ -3814,6 +3518,154 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.749992370372631"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -4446,886 +4298,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749992370372631"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749992370372631"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749992370372631"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749992370372631"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749992370372631"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749992370372631"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749992370372631"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749992370372631"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6140,8 +5112,8 @@
   <dimension ref="A1:K310"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7" x14ac:dyDescent="0"/>
@@ -6161,34 +5133,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="43" customFormat="1" ht="72" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="111"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="116"/>
     </row>
     <row r="2" spans="1:11" s="42" customFormat="1" ht="18">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="108"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="1:11" s="41" customFormat="1" ht="25" customHeight="1">
       <c r="A3" s="38" t="s">
@@ -6510,31 +5482,31 @@
       <c r="B12" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="106" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="113" t="s">
+      <c r="D12" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="114" t="s">
+      <c r="F12" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="114">
+      <c r="G12" s="108">
         <v>41390</v>
       </c>
-      <c r="H12" s="114">
+      <c r="H12" s="108">
         <v>41450</v>
       </c>
-      <c r="I12" s="113" t="s">
+      <c r="I12" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="113" t="s">
+      <c r="J12" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="115" t="s">
+      <c r="K12" s="109" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6543,31 +5515,31 @@
       <c r="B13" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="112" t="s">
+      <c r="C13" s="106" t="s">
         <v>327</v>
       </c>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="113" t="s">
+      <c r="E13" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="114" t="s">
+      <c r="F13" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="114">
+      <c r="G13" s="108">
         <v>41450</v>
       </c>
-      <c r="H13" s="114">
+      <c r="H13" s="108">
         <v>41450</v>
       </c>
-      <c r="I13" s="113" t="s">
+      <c r="I13" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="113" t="s">
+      <c r="J13" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="115" t="s">
+      <c r="K13" s="109" t="s">
         <v>325</v>
       </c>
     </row>
@@ -6576,58 +5548,62 @@
       <c r="B14" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="106" t="s">
         <v>335</v>
       </c>
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="113" t="s">
+      <c r="E14" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="114" t="s">
+      <c r="F14" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="114" t="s">
+      <c r="G14" s="108" t="s">
         <v>336</v>
       </c>
-      <c r="H14" s="114">
+      <c r="H14" s="108">
         <v>41450</v>
       </c>
-      <c r="I14" s="113" t="s">
-        <v>221</v>
-      </c>
-      <c r="J14" s="113"/>
-      <c r="K14" s="115"/>
+      <c r="I14" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="107" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="109"/>
     </row>
     <row r="15" spans="1:11" s="70" customFormat="1" ht="90">
       <c r="A15" s="69"/>
       <c r="B15" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="106" t="s">
         <v>328</v>
       </c>
-      <c r="D15" s="113" t="s">
+      <c r="D15" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="113" t="s">
+      <c r="E15" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="114" t="s">
+      <c r="F15" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="114">
+      <c r="G15" s="108">
         <v>41453</v>
       </c>
-      <c r="H15" s="114">
+      <c r="H15" s="108">
         <v>41450</v>
       </c>
-      <c r="I15" s="113" t="s">
-        <v>221</v>
-      </c>
-      <c r="J15" s="113"/>
-      <c r="K15" s="115" t="s">
+      <c r="I15" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="107" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="109" t="s">
         <v>326</v>
       </c>
     </row>
@@ -6636,29 +5612,29 @@
       <c r="B16" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="112" t="s">
+      <c r="C16" s="106" t="s">
         <v>337</v>
       </c>
-      <c r="D16" s="113" t="s">
+      <c r="D16" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="113" t="s">
+      <c r="E16" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="114" t="s">
+      <c r="F16" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="114">
+      <c r="G16" s="108">
         <v>41458</v>
       </c>
-      <c r="H16" s="114">
+      <c r="H16" s="108">
         <v>41450</v>
       </c>
-      <c r="I16" s="113" t="s">
+      <c r="I16" s="107" t="s">
         <v>221</v>
       </c>
-      <c r="J16" s="113"/>
-      <c r="K16" s="115" t="s">
+      <c r="J16" s="107"/>
+      <c r="K16" s="109" t="s">
         <v>341</v>
       </c>
     </row>
@@ -6667,29 +5643,29 @@
       <c r="B17" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="106" t="s">
         <v>329</v>
       </c>
-      <c r="D17" s="113" t="s">
+      <c r="D17" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="113" t="s">
+      <c r="E17" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="114" t="s">
+      <c r="F17" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="114">
+      <c r="G17" s="108">
         <v>41457</v>
       </c>
-      <c r="H17" s="114">
+      <c r="H17" s="108">
         <v>41450</v>
       </c>
-      <c r="I17" s="113" t="s">
+      <c r="I17" s="107" t="s">
         <v>221</v>
       </c>
-      <c r="J17" s="113"/>
-      <c r="K17" s="115" t="s">
+      <c r="J17" s="107"/>
+      <c r="K17" s="109" t="s">
         <v>334</v>
       </c>
     </row>
@@ -6698,29 +5674,29 @@
       <c r="B18" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="112" t="s">
+      <c r="C18" s="106" t="s">
         <v>330</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D18" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="113" t="s">
+      <c r="E18" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="114" t="s">
+      <c r="F18" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="114">
+      <c r="G18" s="108">
         <v>41457</v>
       </c>
-      <c r="H18" s="114">
+      <c r="H18" s="108">
         <v>41450</v>
       </c>
-      <c r="I18" s="113" t="s">
+      <c r="I18" s="107" t="s">
         <v>221</v>
       </c>
-      <c r="J18" s="113"/>
-      <c r="K18" s="115" t="s">
+      <c r="J18" s="107"/>
+      <c r="K18" s="109" t="s">
         <v>331</v>
       </c>
     </row>
@@ -6729,29 +5705,29 @@
       <c r="B19" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="106" t="s">
         <v>332</v>
       </c>
-      <c r="D19" s="113" t="s">
+      <c r="D19" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="113" t="s">
+      <c r="E19" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="114" t="s">
+      <c r="F19" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="114">
+      <c r="G19" s="108">
         <v>41457</v>
       </c>
-      <c r="H19" s="114">
+      <c r="H19" s="108">
         <v>41450</v>
       </c>
-      <c r="I19" s="113" t="s">
+      <c r="I19" s="107" t="s">
         <v>221</v>
       </c>
-      <c r="J19" s="113"/>
-      <c r="K19" s="115" t="s">
+      <c r="J19" s="107"/>
+      <c r="K19" s="109" t="s">
         <v>333</v>
       </c>
     </row>
@@ -6760,29 +5736,29 @@
       <c r="B20" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="112" t="s">
+      <c r="C20" s="106" t="s">
         <v>338</v>
       </c>
-      <c r="D20" s="113" t="s">
+      <c r="D20" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="113" t="s">
+      <c r="E20" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="114" t="s">
+      <c r="F20" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="114">
+      <c r="G20" s="108">
         <v>41459</v>
       </c>
-      <c r="H20" s="114">
+      <c r="H20" s="108">
         <v>41450</v>
       </c>
-      <c r="I20" s="113" t="s">
+      <c r="I20" s="107" t="s">
         <v>221</v>
       </c>
-      <c r="J20" s="113"/>
-      <c r="K20" s="115" t="s">
+      <c r="J20" s="107"/>
+      <c r="K20" s="109" t="s">
         <v>339</v>
       </c>
     </row>
@@ -6791,29 +5767,29 @@
       <c r="B21" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="112" t="s">
+      <c r="C21" s="106" t="s">
         <v>322</v>
       </c>
-      <c r="D21" s="113" t="s">
+      <c r="D21" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="113" t="s">
+      <c r="E21" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="114" t="s">
+      <c r="F21" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="114">
+      <c r="G21" s="108">
         <v>41460</v>
       </c>
-      <c r="H21" s="114">
+      <c r="H21" s="108">
         <v>41450</v>
       </c>
-      <c r="I21" s="113" t="s">
+      <c r="I21" s="107" t="s">
         <v>221</v>
       </c>
-      <c r="J21" s="113"/>
-      <c r="K21" s="115" t="s">
+      <c r="J21" s="107"/>
+      <c r="K21" s="109" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6844,7 +5820,7 @@
         <v>6</v>
       </c>
       <c r="J22" s="73"/>
-      <c r="K22" s="116" t="s">
+      <c r="K22" s="110" t="s">
         <v>137</v>
       </c>
     </row>
@@ -11350,318 +10326,318 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:I13 I15 I17:I20 I22:I310">
-    <cfRule type="containsText" dxfId="194" priority="160" operator="containsText" text="PITCH">
+    <cfRule type="containsText" dxfId="180" priority="160" operator="containsText" text="PITCH">
       <formula>NOT(ISERROR(SEARCH("PITCH",I6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="161" operator="containsText" text="COMPLETE">
+    <cfRule type="containsText" dxfId="179" priority="161" operator="containsText" text="COMPLETE">
       <formula>NOT(ISERROR(SEARCH("COMPLETE",I6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="162" operator="containsText" text="ON TRACK">
+    <cfRule type="containsText" dxfId="178" priority="162" operator="containsText" text="ON TRACK">
       <formula>NOT(ISERROR(SEARCH("ON TRACK",I6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="163" operator="containsText" text="ATTENTION">
+    <cfRule type="containsText" dxfId="177" priority="163" operator="containsText" text="ATTENTION">
       <formula>NOT(ISERROR(SEARCH("ATTENTION",I6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="164" operator="containsText" text="OFF TRACK">
+    <cfRule type="containsText" dxfId="176" priority="164" operator="containsText" text="OFF TRACK">
       <formula>NOT(ISERROR(SEARCH("OFF TRACK",I6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A13 A22:A310 A19 A15">
-    <cfRule type="cellIs" dxfId="189" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="457" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="458" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="459" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J13 J22:J310 J19 J15">
-    <cfRule type="containsText" dxfId="186" priority="119" operator="containsText" text="SUBMITTED">
+    <cfRule type="containsText" dxfId="172" priority="119" operator="containsText" text="SUBMITTED">
       <formula>NOT(ISERROR(SEARCH("SUBMITTED",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="120" operator="containsText" text="APPROVED">
+    <cfRule type="containsText" dxfId="171" priority="120" operator="containsText" text="APPROVED">
       <formula>NOT(ISERROR(SEARCH("APPROVED",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="121" operator="containsText" text="HOLDING">
+    <cfRule type="containsText" dxfId="170" priority="121" operator="containsText" text="HOLDING">
       <formula>NOT(ISERROR(SEARCH("HOLDING",J6)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="183" priority="122" operator="beginsWith" text="DECLINED">
+    <cfRule type="beginsWith" dxfId="169" priority="122" operator="beginsWith" text="DECLINED">
       <formula>LEFT(J6,LEN("DECLINED"))="DECLINED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I5">
-    <cfRule type="containsText" dxfId="182" priority="113" operator="containsText" text="PITCH">
+    <cfRule type="containsText" dxfId="168" priority="113" operator="containsText" text="PITCH">
       <formula>NOT(ISERROR(SEARCH("PITCH",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="114" operator="containsText" text="COMPLETE">
+    <cfRule type="containsText" dxfId="167" priority="114" operator="containsText" text="COMPLETE">
       <formula>NOT(ISERROR(SEARCH("COMPLETE",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="116" operator="containsText" text="ATTENTION">
+    <cfRule type="containsText" dxfId="166" priority="116" operator="containsText" text="ATTENTION">
       <formula>NOT(ISERROR(SEARCH("ATTENTION",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="117" operator="containsText" text="OFF TRACK">
+    <cfRule type="containsText" dxfId="165" priority="117" operator="containsText" text="OFF TRACK">
       <formula>NOT(ISERROR(SEARCH("OFF TRACK",I4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J5">
-    <cfRule type="containsText" dxfId="178" priority="109" operator="containsText" text="SUBMITTED">
+    <cfRule type="containsText" dxfId="164" priority="109" operator="containsText" text="SUBMITTED">
       <formula>NOT(ISERROR(SEARCH("SUBMITTED",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="110" operator="containsText" text="APPROVED">
+    <cfRule type="containsText" dxfId="163" priority="110" operator="containsText" text="APPROVED">
       <formula>NOT(ISERROR(SEARCH("APPROVED",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="111" operator="containsText" text="HOLDING">
+    <cfRule type="containsText" dxfId="162" priority="111" operator="containsText" text="HOLDING">
       <formula>NOT(ISERROR(SEARCH("HOLDING",J4)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="175" priority="112" operator="beginsWith" text="DECLINED">
+    <cfRule type="beginsWith" dxfId="161" priority="112" operator="beginsWith" text="DECLINED">
       <formula>LEFT(J4,LEN("DECLINED"))="DECLINED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I2 I4:I13 I15 I17:I20 I22:I1048576">
-    <cfRule type="containsText" dxfId="174" priority="108" operator="containsText" text="Planned">
+    <cfRule type="containsText" dxfId="160" priority="108" operator="containsText" text="Planned">
       <formula>NOT(ISERROR(SEARCH("Planned",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="173" priority="107" operator="containsText" text="Planned">
+    <cfRule type="containsText" dxfId="159" priority="107" operator="containsText" text="Planned">
       <formula>NOT(ISERROR(SEARCH("Planned",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I13 I15 I17:I20 I22:I1048576">
-    <cfRule type="containsText" dxfId="172" priority="106" operator="containsText" text="IN PROGRESS">
+    <cfRule type="containsText" dxfId="158" priority="106" operator="containsText" text="IN PROGRESS">
       <formula>NOT(ISERROR(SEARCH("IN PROGRESS",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="cellIs" dxfId="171" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="89" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="90" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="91" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="containsText" dxfId="168" priority="80" operator="containsText" text="SUBMITTED">
+    <cfRule type="containsText" dxfId="154" priority="80" operator="containsText" text="SUBMITTED">
       <formula>NOT(ISERROR(SEARCH("SUBMITTED",J20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="81" operator="containsText" text="APPROVED">
+    <cfRule type="containsText" dxfId="153" priority="81" operator="containsText" text="APPROVED">
       <formula>NOT(ISERROR(SEARCH("APPROVED",J20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="82" operator="containsText" text="HOLDING">
+    <cfRule type="containsText" dxfId="152" priority="82" operator="containsText" text="HOLDING">
       <formula>NOT(ISERROR(SEARCH("HOLDING",J20)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="165" priority="83" operator="beginsWith" text="DECLINED">
+    <cfRule type="beginsWith" dxfId="151" priority="83" operator="beginsWith" text="DECLINED">
       <formula>LEFT(J20,LEN("DECLINED"))="DECLINED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="164" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="75" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="76" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="161" priority="66" operator="containsText" text="SUBMITTED">
+    <cfRule type="containsText" dxfId="147" priority="66" operator="containsText" text="SUBMITTED">
       <formula>NOT(ISERROR(SEARCH("SUBMITTED",J18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="67" operator="containsText" text="APPROVED">
+    <cfRule type="containsText" dxfId="146" priority="67" operator="containsText" text="APPROVED">
       <formula>NOT(ISERROR(SEARCH("APPROVED",J18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="68" operator="containsText" text="HOLDING">
+    <cfRule type="containsText" dxfId="145" priority="68" operator="containsText" text="HOLDING">
       <formula>NOT(ISERROR(SEARCH("HOLDING",J18)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="158" priority="69" operator="beginsWith" text="DECLINED">
+    <cfRule type="beginsWith" dxfId="144" priority="69" operator="beginsWith" text="DECLINED">
       <formula>LEFT(J18,LEN("DECLINED"))="DECLINED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="157" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="61" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="62" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="63" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="containsText" dxfId="154" priority="52" operator="containsText" text="SUBMITTED">
+    <cfRule type="containsText" dxfId="140" priority="52" operator="containsText" text="SUBMITTED">
       <formula>NOT(ISERROR(SEARCH("SUBMITTED",J17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="53" operator="containsText" text="APPROVED">
+    <cfRule type="containsText" dxfId="139" priority="53" operator="containsText" text="APPROVED">
       <formula>NOT(ISERROR(SEARCH("APPROVED",J17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="54" operator="containsText" text="HOLDING">
+    <cfRule type="containsText" dxfId="138" priority="54" operator="containsText" text="HOLDING">
       <formula>NOT(ISERROR(SEARCH("HOLDING",J17)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="151" priority="55" operator="beginsWith" text="DECLINED">
+    <cfRule type="beginsWith" dxfId="137" priority="55" operator="beginsWith" text="DECLINED">
       <formula>LEFT(J17,LEN("DECLINED"))="DECLINED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="cellIs" dxfId="150" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="40" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="41" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="containsText" dxfId="147" priority="36" operator="containsText" text="SUBMITTED">
+    <cfRule type="containsText" dxfId="133" priority="36" operator="containsText" text="SUBMITTED">
       <formula>NOT(ISERROR(SEARCH("SUBMITTED",J14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="37" operator="containsText" text="APPROVED">
+    <cfRule type="containsText" dxfId="132" priority="37" operator="containsText" text="APPROVED">
       <formula>NOT(ISERROR(SEARCH("APPROVED",J14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="38" operator="containsText" text="HOLDING">
+    <cfRule type="containsText" dxfId="131" priority="38" operator="containsText" text="HOLDING">
       <formula>NOT(ISERROR(SEARCH("HOLDING",J14)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="144" priority="39" operator="beginsWith" text="DECLINED">
+    <cfRule type="beginsWith" dxfId="130" priority="39" operator="beginsWith" text="DECLINED">
       <formula>LEFT(J14,LEN("DECLINED"))="DECLINED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="containsText" dxfId="143" priority="31" operator="containsText" text="PITCH">
+    <cfRule type="containsText" dxfId="129" priority="31" operator="containsText" text="PITCH">
       <formula>NOT(ISERROR(SEARCH("PITCH",I14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="32" operator="containsText" text="COMPLETE">
+    <cfRule type="containsText" dxfId="128" priority="32" operator="containsText" text="COMPLETE">
       <formula>NOT(ISERROR(SEARCH("COMPLETE",I14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="33" operator="containsText" text="ON TRACK">
+    <cfRule type="containsText" dxfId="127" priority="33" operator="containsText" text="ON TRACK">
       <formula>NOT(ISERROR(SEARCH("ON TRACK",I14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="34" operator="containsText" text="ATTENTION">
+    <cfRule type="containsText" dxfId="126" priority="34" operator="containsText" text="ATTENTION">
       <formula>NOT(ISERROR(SEARCH("ATTENTION",I14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="35" operator="containsText" text="OFF TRACK">
+    <cfRule type="containsText" dxfId="125" priority="35" operator="containsText" text="OFF TRACK">
       <formula>NOT(ISERROR(SEARCH("OFF TRACK",I14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="containsText" dxfId="138" priority="30" operator="containsText" text="Planned">
+    <cfRule type="containsText" dxfId="124" priority="30" operator="containsText" text="Planned">
       <formula>NOT(ISERROR(SEARCH("Planned",I14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="containsText" dxfId="137" priority="29" operator="containsText" text="IN PROGRESS">
+    <cfRule type="containsText" dxfId="123" priority="29" operator="containsText" text="IN PROGRESS">
       <formula>NOT(ISERROR(SEARCH("IN PROGRESS",I14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="136" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="26" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="133" priority="22" operator="containsText" text="SUBMITTED">
+    <cfRule type="containsText" dxfId="119" priority="22" operator="containsText" text="SUBMITTED">
       <formula>NOT(ISERROR(SEARCH("SUBMITTED",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="23" operator="containsText" text="APPROVED">
+    <cfRule type="containsText" dxfId="118" priority="23" operator="containsText" text="APPROVED">
       <formula>NOT(ISERROR(SEARCH("APPROVED",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="24" operator="containsText" text="HOLDING">
+    <cfRule type="containsText" dxfId="117" priority="24" operator="containsText" text="HOLDING">
       <formula>NOT(ISERROR(SEARCH("HOLDING",J16)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="130" priority="25" operator="beginsWith" text="DECLINED">
+    <cfRule type="beginsWith" dxfId="116" priority="25" operator="beginsWith" text="DECLINED">
       <formula>LEFT(J16,LEN("DECLINED"))="DECLINED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="containsText" dxfId="129" priority="17" operator="containsText" text="PITCH">
+    <cfRule type="containsText" dxfId="115" priority="17" operator="containsText" text="PITCH">
       <formula>NOT(ISERROR(SEARCH("PITCH",I16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="18" operator="containsText" text="COMPLETE">
+    <cfRule type="containsText" dxfId="114" priority="18" operator="containsText" text="COMPLETE">
       <formula>NOT(ISERROR(SEARCH("COMPLETE",I16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="19" operator="containsText" text="ON TRACK">
+    <cfRule type="containsText" dxfId="113" priority="19" operator="containsText" text="ON TRACK">
       <formula>NOT(ISERROR(SEARCH("ON TRACK",I16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="20" operator="containsText" text="ATTENTION">
+    <cfRule type="containsText" dxfId="112" priority="20" operator="containsText" text="ATTENTION">
       <formula>NOT(ISERROR(SEARCH("ATTENTION",I16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="21" operator="containsText" text="OFF TRACK">
+    <cfRule type="containsText" dxfId="111" priority="21" operator="containsText" text="OFF TRACK">
       <formula>NOT(ISERROR(SEARCH("OFF TRACK",I16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="containsText" dxfId="124" priority="16" operator="containsText" text="Planned">
+    <cfRule type="containsText" dxfId="110" priority="16" operator="containsText" text="Planned">
       <formula>NOT(ISERROR(SEARCH("Planned",I16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="containsText" dxfId="123" priority="15" operator="containsText" text="IN PROGRESS">
+    <cfRule type="containsText" dxfId="109" priority="15" operator="containsText" text="IN PROGRESS">
       <formula>NOT(ISERROR(SEARCH("IN PROGRESS",I16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="containsText" dxfId="27" priority="10" operator="containsText" text="PITCH">
+    <cfRule type="containsText" dxfId="108" priority="10" operator="containsText" text="PITCH">
       <formula>NOT(ISERROR(SEARCH("PITCH",I21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="COMPLETE">
+    <cfRule type="containsText" dxfId="107" priority="11" operator="containsText" text="COMPLETE">
       <formula>NOT(ISERROR(SEARCH("COMPLETE",I21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="12" operator="containsText" text="ON TRACK">
+    <cfRule type="containsText" dxfId="106" priority="12" operator="containsText" text="ON TRACK">
       <formula>NOT(ISERROR(SEARCH("ON TRACK",I21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="ATTENTION">
+    <cfRule type="containsText" dxfId="105" priority="13" operator="containsText" text="ATTENTION">
       <formula>NOT(ISERROR(SEARCH("ATTENTION",I21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="OFF TRACK">
+    <cfRule type="containsText" dxfId="104" priority="14" operator="containsText" text="OFF TRACK">
       <formula>NOT(ISERROR(SEARCH("OFF TRACK",I21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="Planned">
+    <cfRule type="containsText" dxfId="103" priority="9" operator="containsText" text="Planned">
       <formula>NOT(ISERROR(SEARCH("Planned",I21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="IN PROGRESS">
+    <cfRule type="containsText" dxfId="102" priority="8" operator="containsText" text="IN PROGRESS">
       <formula>NOT(ISERROR(SEARCH("IN PROGRESS",I21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="SUBMITTED">
+    <cfRule type="containsText" dxfId="98" priority="1" operator="containsText" text="SUBMITTED">
       <formula>NOT(ISERROR(SEARCH("SUBMITTED",J21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="APPROVED">
+    <cfRule type="containsText" dxfId="97" priority="2" operator="containsText" text="APPROVED">
       <formula>NOT(ISERROR(SEARCH("APPROVED",J21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="HOLDING">
+    <cfRule type="containsText" dxfId="96" priority="3" operator="containsText" text="HOLDING">
       <formula>NOT(ISERROR(SEARCH("HOLDING",J21)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="4" operator="beginsWith" text="DECLINED">
+    <cfRule type="beginsWith" dxfId="95" priority="4" operator="beginsWith" text="DECLINED">
       <formula>LEFT(J21,LEN("DECLINED"))="DECLINED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11725,34 +10701,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="43" customFormat="1" ht="72" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="111"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="116"/>
     </row>
     <row r="2" spans="1:11" s="42" customFormat="1" ht="18">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="108"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="1:11" s="41" customFormat="1" ht="25" customHeight="1">
       <c r="A3" s="38" t="s">
@@ -16709,213 +15685,213 @@
     <mergeCell ref="A2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="I66:I305 I6:I55">
-    <cfRule type="containsText" dxfId="122" priority="77" operator="containsText" text="PITCH">
+    <cfRule type="containsText" dxfId="94" priority="77" operator="containsText" text="PITCH">
       <formula>NOT(ISERROR(SEARCH("PITCH",I6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="78" operator="containsText" text="COMPLETE">
+    <cfRule type="containsText" dxfId="93" priority="78" operator="containsText" text="COMPLETE">
       <formula>NOT(ISERROR(SEARCH("COMPLETE",I6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="80" operator="containsText" text="ATTENTION">
+    <cfRule type="containsText" dxfId="92" priority="80" operator="containsText" text="ATTENTION">
       <formula>NOT(ISERROR(SEARCH("ATTENTION",I6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="81" operator="containsText" text="OFF TRACK">
+    <cfRule type="containsText" dxfId="91" priority="81" operator="containsText" text="OFF TRACK">
       <formula>NOT(ISERROR(SEARCH("OFF TRACK",I6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A305 A6:A55">
-    <cfRule type="cellIs" dxfId="118" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="82" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="83" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="84" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66:F305">
-    <cfRule type="cellIs" dxfId="115" priority="76" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="76" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:J16 J66:J305 J21:J55">
-    <cfRule type="containsText" dxfId="114" priority="72" operator="containsText" text="SUBMITTED">
+    <cfRule type="containsText" dxfId="86" priority="72" operator="containsText" text="SUBMITTED">
       <formula>NOT(ISERROR(SEARCH("SUBMITTED",J14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="73" operator="containsText" text="APPROVED">
+    <cfRule type="containsText" dxfId="85" priority="73" operator="containsText" text="APPROVED">
       <formula>NOT(ISERROR(SEARCH("APPROVED",J14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="74" operator="containsText" text="HOLDING">
+    <cfRule type="containsText" dxfId="84" priority="74" operator="containsText" text="HOLDING">
       <formula>NOT(ISERROR(SEARCH("HOLDING",J14)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="111" priority="75" operator="beginsWith" text="DECLINED">
+    <cfRule type="beginsWith" dxfId="83" priority="75" operator="beginsWith" text="DECLINED">
       <formula>LEFT(J14,LEN("DECLINED"))="DECLINED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J20">
-    <cfRule type="containsText" dxfId="110" priority="63" operator="containsText" text="SUBMITTED">
+    <cfRule type="containsText" dxfId="82" priority="63" operator="containsText" text="SUBMITTED">
       <formula>NOT(ISERROR(SEARCH("SUBMITTED",J17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="64" operator="containsText" text="APPROVED">
+    <cfRule type="containsText" dxfId="81" priority="64" operator="containsText" text="APPROVED">
       <formula>NOT(ISERROR(SEARCH("APPROVED",J17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="65" operator="containsText" text="HOLDING">
+    <cfRule type="containsText" dxfId="80" priority="65" operator="containsText" text="HOLDING">
       <formula>NOT(ISERROR(SEARCH("HOLDING",J17)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="107" priority="66" operator="beginsWith" text="DECLINED">
+    <cfRule type="beginsWith" dxfId="79" priority="66" operator="beginsWith" text="DECLINED">
       <formula>LEFT(J17,LEN("DECLINED"))="DECLINED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I3 I66:I1048576 I6:I55">
-    <cfRule type="containsText" dxfId="106" priority="62" operator="containsText" text="Planned">
+    <cfRule type="containsText" dxfId="78" priority="62" operator="containsText" text="Planned">
       <formula>NOT(ISERROR(SEARCH("Planned",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="105" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="59" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="60" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="61" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="102" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="46" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="47" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J13">
-    <cfRule type="containsText" dxfId="99" priority="32" operator="containsText" text="SUBMITTED">
+    <cfRule type="containsText" dxfId="71" priority="32" operator="containsText" text="SUBMITTED">
       <formula>NOT(ISERROR(SEARCH("SUBMITTED",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="33" operator="containsText" text="APPROVED">
+    <cfRule type="containsText" dxfId="70" priority="33" operator="containsText" text="APPROVED">
       <formula>NOT(ISERROR(SEARCH("APPROVED",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="34" operator="containsText" text="HOLDING">
+    <cfRule type="containsText" dxfId="69" priority="34" operator="containsText" text="HOLDING">
       <formula>NOT(ISERROR(SEARCH("HOLDING",J4)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="96" priority="35" operator="beginsWith" text="DECLINED">
+    <cfRule type="beginsWith" dxfId="68" priority="35" operator="beginsWith" text="DECLINED">
       <formula>LEFT(J4,LEN("DECLINED"))="DECLINED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I5">
-    <cfRule type="containsText" dxfId="95" priority="27" operator="containsText" text="PITCH">
+    <cfRule type="containsText" dxfId="67" priority="27" operator="containsText" text="PITCH">
       <formula>NOT(ISERROR(SEARCH("PITCH",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="28" operator="containsText" text="COMPLETE">
+    <cfRule type="containsText" dxfId="66" priority="28" operator="containsText" text="COMPLETE">
       <formula>NOT(ISERROR(SEARCH("COMPLETE",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="29" operator="containsText" text="ON TRACK">
+    <cfRule type="containsText" dxfId="65" priority="29" operator="containsText" text="ON TRACK">
       <formula>NOT(ISERROR(SEARCH("ON TRACK",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="30" operator="containsText" text="ATTENTION">
+    <cfRule type="containsText" dxfId="64" priority="30" operator="containsText" text="ATTENTION">
       <formula>NOT(ISERROR(SEARCH("ATTENTION",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="31" operator="containsText" text="OFF TRACK">
+    <cfRule type="containsText" dxfId="63" priority="31" operator="containsText" text="OFF TRACK">
       <formula>NOT(ISERROR(SEARCH("OFF TRACK",I4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I5">
-    <cfRule type="containsText" dxfId="90" priority="26" operator="containsText" text="Planned">
+    <cfRule type="containsText" dxfId="62" priority="26" operator="containsText" text="Planned">
       <formula>NOT(ISERROR(SEARCH("Planned",I4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56:I62">
-    <cfRule type="containsText" dxfId="89" priority="18" operator="containsText" text="PITCH">
+    <cfRule type="containsText" dxfId="61" priority="18" operator="containsText" text="PITCH">
       <formula>NOT(ISERROR(SEARCH("PITCH",I56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="19" operator="containsText" text="COMPLETE">
+    <cfRule type="containsText" dxfId="60" priority="19" operator="containsText" text="COMPLETE">
       <formula>NOT(ISERROR(SEARCH("COMPLETE",I56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="20" operator="containsText" text="ON TRACK">
+    <cfRule type="containsText" dxfId="59" priority="20" operator="containsText" text="ON TRACK">
       <formula>NOT(ISERROR(SEARCH("ON TRACK",I56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="21" operator="containsText" text="ATTENTION">
+    <cfRule type="containsText" dxfId="58" priority="21" operator="containsText" text="ATTENTION">
       <formula>NOT(ISERROR(SEARCH("ATTENTION",I56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="22" operator="containsText" text="OFF TRACK">
+    <cfRule type="containsText" dxfId="57" priority="22" operator="containsText" text="OFF TRACK">
       <formula>NOT(ISERROR(SEARCH("OFF TRACK",I56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:A62">
-    <cfRule type="cellIs" dxfId="84" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="23" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="24" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56:J62">
-    <cfRule type="containsText" dxfId="81" priority="13" operator="containsText" text="SUBMITTED">
+    <cfRule type="containsText" dxfId="53" priority="13" operator="containsText" text="SUBMITTED">
       <formula>NOT(ISERROR(SEARCH("SUBMITTED",J56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="14" operator="containsText" text="APPROVED">
+    <cfRule type="containsText" dxfId="52" priority="14" operator="containsText" text="APPROVED">
       <formula>NOT(ISERROR(SEARCH("APPROVED",J56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="15" operator="containsText" text="HOLDING">
+    <cfRule type="containsText" dxfId="51" priority="15" operator="containsText" text="HOLDING">
       <formula>NOT(ISERROR(SEARCH("HOLDING",J56)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="78" priority="16" operator="beginsWith" text="DECLINED">
+    <cfRule type="beginsWith" dxfId="50" priority="16" operator="beginsWith" text="DECLINED">
       <formula>LEFT(J56,LEN("DECLINED"))="DECLINED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56:I62">
-    <cfRule type="containsText" dxfId="77" priority="12" operator="containsText" text="Planned">
+    <cfRule type="containsText" dxfId="49" priority="12" operator="containsText" text="Planned">
       <formula>NOT(ISERROR(SEARCH("Planned",I56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:I65">
-    <cfRule type="containsText" dxfId="76" priority="7" operator="containsText" text="PITCH">
+    <cfRule type="containsText" dxfId="48" priority="7" operator="containsText" text="PITCH">
       <formula>NOT(ISERROR(SEARCH("PITCH",I63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="9" operator="containsText" text="ON TRACK">
+    <cfRule type="containsText" dxfId="47" priority="9" operator="containsText" text="ON TRACK">
       <formula>NOT(ISERROR(SEARCH("ON TRACK",I63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="10" operator="containsText" text="ATTENTION">
+    <cfRule type="containsText" dxfId="46" priority="10" operator="containsText" text="ATTENTION">
       <formula>NOT(ISERROR(SEARCH("ATTENTION",I63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="11" operator="containsText" text="OFF TRACK">
+    <cfRule type="containsText" dxfId="45" priority="11" operator="containsText" text="OFF TRACK">
       <formula>NOT(ISERROR(SEARCH("OFF TRACK",I63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J63:J65">
-    <cfRule type="containsText" dxfId="72" priority="3" operator="containsText" text="SUBMITTED">
+    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="SUBMITTED">
       <formula>NOT(ISERROR(SEARCH("SUBMITTED",J63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="4" operator="containsText" text="APPROVED">
+    <cfRule type="containsText" dxfId="43" priority="4" operator="containsText" text="APPROVED">
       <formula>NOT(ISERROR(SEARCH("APPROVED",J63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="5" operator="containsText" text="HOLDING">
+    <cfRule type="containsText" dxfId="42" priority="5" operator="containsText" text="HOLDING">
       <formula>NOT(ISERROR(SEARCH("HOLDING",J63)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="69" priority="6" operator="beginsWith" text="DECLINED">
+    <cfRule type="beginsWith" dxfId="41" priority="6" operator="beginsWith" text="DECLINED">
       <formula>LEFT(J63,LEN("DECLINED"))="DECLINED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:I65">
-    <cfRule type="containsText" dxfId="68" priority="2" operator="containsText" text="Planned">
+    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="Planned">
       <formula>NOT(ISERROR(SEARCH("Planned",I63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="COMPLETE">
+    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="COMPLETE">
       <formula>NOT(ISERROR(SEARCH("COMPLETE",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:K1048576">
-    <cfRule type="containsText" dxfId="66" priority="8" operator="containsText" text="IN PROGRESS">
+    <cfRule type="containsText" dxfId="38" priority="8" operator="containsText" text="IN PROGRESS">
       <formula>NOT(ISERROR(SEARCH("IN PROGRESS",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16975,36 +15951,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="43" customFormat="1" ht="47" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="111"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="116"/>
     </row>
     <row r="2" spans="1:12" s="42" customFormat="1" ht="18">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="111" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="108"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="113"/>
     </row>
     <row r="3" spans="1:12" s="41" customFormat="1" ht="32" customHeight="1">
       <c r="A3" s="38" t="s">
@@ -17938,47 +16914,47 @@
     <mergeCell ref="A2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:A36">
-    <cfRule type="cellIs" dxfId="65" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="62" priority="4" operator="containsText" text="ON HOLD">
+    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="ON HOLD">
       <formula>NOT(ISERROR(SEARCH("ON HOLD",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="IN DESIGN">
+    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="IN DESIGN">
       <formula>NOT(ISERROR(SEARCH("IN DESIGN",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="6" operator="containsText" text="IN DISCUSSION">
+    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="IN DISCUSSION">
       <formula>NOT(ISERROR(SEARCH("IN DISCUSSION",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="OFF TRACK">
+    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="OFF TRACK">
       <formula>NOT(ISERROR(SEARCH("OFF TRACK",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="8" operator="containsText" text="COMPLETE">
+    <cfRule type="containsText" dxfId="30" priority="8" operator="containsText" text="COMPLETE">
       <formula>NOT(ISERROR(SEARCH("COMPLETE",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="ATTENTION">
+    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="ATTENTION">
       <formula>NOT(ISERROR(SEARCH("ATTENTION",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="10" operator="containsText" text="IN PROGRESS">
+    <cfRule type="containsText" dxfId="28" priority="10" operator="containsText" text="IN PROGRESS">
       <formula>NOT(ISERROR(SEARCH("IN PROGRESS",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18078,36 +17054,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="43" customFormat="1" ht="47" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="111"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="116"/>
     </row>
     <row r="2" spans="1:12" s="42" customFormat="1" ht="18">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="111" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="108"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="113"/>
     </row>
     <row r="3" spans="1:12" s="41" customFormat="1" ht="32" customHeight="1">
       <c r="A3" s="38" t="s">
@@ -18485,36 +17461,36 @@
     <mergeCell ref="A2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:A19">
-    <cfRule type="cellIs" dxfId="50" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="ON HOLD">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="ON HOLD">
       <formula>NOT(ISERROR(SEARCH("ON HOLD",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="IN DESIGN">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="IN DESIGN">
       <formula>NOT(ISERROR(SEARCH("IN DESIGN",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="IN DISCUSSION">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="IN DISCUSSION">
       <formula>NOT(ISERROR(SEARCH("IN DISCUSSION",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="OFF TRACK">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="OFF TRACK">
       <formula>NOT(ISERROR(SEARCH("OFF TRACK",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="COMPLETE">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="COMPLETE">
       <formula>NOT(ISERROR(SEARCH("COMPLETE",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="ATTENTION">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="ATTENTION">
       <formula>NOT(ISERROR(SEARCH("ATTENTION",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="7" operator="containsText" text="IN PROGRESS">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="IN PROGRESS">
       <formula>NOT(ISERROR(SEARCH("IN PROGRESS",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18611,28 +17587,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="43" customFormat="1" ht="47" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:8" s="42" customFormat="1" ht="18">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="111" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="108"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="113"/>
     </row>
     <row r="3" spans="1:8" s="41" customFormat="1" ht="32" customHeight="1">
       <c r="A3" s="39" t="s">
@@ -19216,13 +18192,13 @@
     <mergeCell ref="A2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:B29">
-    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19557,36 +18533,36 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="E6:E8">
-    <cfRule type="expression" dxfId="35" priority="358">
+    <cfRule type="expression" dxfId="7" priority="358">
       <formula>($G5=3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="359">
+    <cfRule type="expression" dxfId="6" priority="359">
       <formula>($G5=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="33" priority="364">
+    <cfRule type="expression" dxfId="5" priority="364">
       <formula>($G3=3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="365">
+    <cfRule type="expression" dxfId="4" priority="365">
       <formula>($G3=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="31" priority="366">
+    <cfRule type="expression" dxfId="3" priority="366">
       <formula>($G3=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="30" priority="367">
+    <cfRule type="expression" dxfId="2" priority="367">
       <formula>($G1=3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="29" priority="368">
+    <cfRule type="expression" dxfId="1" priority="368">
       <formula>($G4=3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="369">
+    <cfRule type="expression" dxfId="0" priority="369">
       <formula>($G4=1)</formula>
     </cfRule>
   </conditionalFormatting>
